--- a/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
+++ b/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25108"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\bsi80103\Desktop\Testing ISM\OLSS\Regression OLSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Z ISM OLSS Operation\General\OLSS Testing Guidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5B800C-3BBE-4A32-AFDC-8EBC3C207A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24416C-1736-44B5-94C7-125B02E23979}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="3" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1961,7 +1961,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2021,7 +2021,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2055,6 +2055,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,7 +2367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2499,6 +2511,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2822,13 +2843,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D109FF-D22F-4785-BFF6-21264004835A}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
@@ -2840,7 +2862,7 @@
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2869,7 +2891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2894,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2919,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2944,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2974,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3004,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3034,7 +3056,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3064,7 +3086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3094,7 +3116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3124,7 +3146,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3154,7 +3176,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3179,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3204,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>21</v>
       </c>
@@ -3220,10 +3242,10 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
     </row>
   </sheetData>
@@ -3240,13 +3262,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34DF6C7-CA63-4D40-9FA7-F46CBCC0E885}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -3255,7 +3278,7 @@
     <col min="5" max="5" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
@@ -3273,7 +3296,7 @@
       </c>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -3291,7 +3314,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6" ht="65.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:6" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -3306,7 +3329,7 @@
       </c>
       <c r="E3" s="50"/>
     </row>
-    <row r="4" spans="1:6" ht="54" customHeight="1" thickBot="1">
+    <row r="4" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -3321,7 +3344,7 @@
       </c>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -3338,7 +3361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -3353,7 +3376,7 @@
       </c>
       <c r="E6" s="50"/>
     </row>
-    <row r="7" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -3382,17 +3405,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E93FA6-A67B-4094-9534-2E0DBF3031B4}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>36</v>
       </c>
@@ -3415,7 +3439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>28</v>
       </c>
@@ -3438,7 +3462,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>28</v>
       </c>
@@ -3461,7 +3485,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>28</v>
       </c>
@@ -3484,7 +3508,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>28</v>
       </c>
@@ -3507,7 +3531,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>28</v>
       </c>
@@ -3530,7 +3554,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>28</v>
       </c>
@@ -3553,7 +3577,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>52</v>
       </c>
@@ -3576,7 +3600,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>52</v>
       </c>
@@ -3599,7 +3623,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>52</v>
       </c>
@@ -3622,7 +3646,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>52</v>
       </c>
@@ -3645,7 +3669,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>65</v>
       </c>
@@ -3668,7 +3692,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>68</v>
       </c>
@@ -3691,7 +3715,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>21</v>
       </c>
@@ -3718,14 +3742,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABDCE10-C2AC-478D-831D-64BA07087E96}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
@@ -3734,7 +3759,7 @@
     <col min="10" max="10" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>72</v>
       </c>
@@ -3781,7 +3806,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="30" customFormat="1" ht="409.5">
+    <row r="2" spans="1:15" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>84</v>
       </c>
@@ -3826,7 +3851,7 @@
       </c>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" s="30" customFormat="1" ht="360">
+    <row r="3" spans="1:15" s="30" customFormat="1" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>84</v>
       </c>
@@ -3871,7 +3896,7 @@
       </c>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:15" s="30" customFormat="1" ht="409.5">
+    <row r="4" spans="1:15" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>84</v>
       </c>
@@ -3916,7 +3941,7 @@
       </c>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="1:15" s="30" customFormat="1" ht="409.5">
+    <row r="5" spans="1:15" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>84</v>
       </c>
@@ -3961,7 +3986,7 @@
       </c>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="1:15" s="30" customFormat="1" ht="270">
+    <row r="6" spans="1:15" s="30" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -4000,7 +4025,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="1:15" s="30" customFormat="1" ht="330">
+    <row r="7" spans="1:15" s="30" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
@@ -4037,7 +4062,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="1:15" s="30" customFormat="1" ht="180">
+    <row r="8" spans="1:15" s="30" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
@@ -4076,7 +4101,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:15" s="30" customFormat="1" ht="120">
+    <row r="9" spans="1:15" s="30" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>84</v>
       </c>
@@ -4115,7 +4140,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="1:15" s="30" customFormat="1" ht="195">
+    <row r="10" spans="1:15" s="30" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>84</v>
       </c>
@@ -4154,7 +4179,7 @@
       <c r="N10" s="28"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:15" s="30" customFormat="1" ht="285">
+    <row r="11" spans="1:15" s="30" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>84</v>
       </c>
@@ -4191,7 +4216,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="29"/>
     </row>
-    <row r="12" spans="1:15" s="30" customFormat="1" ht="255">
+    <row r="12" spans="1:15" s="30" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>84</v>
       </c>
@@ -4228,7 +4253,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="29"/>
     </row>
-    <row r="13" spans="1:15" s="30" customFormat="1" ht="409.5">
+    <row r="13" spans="1:15" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>84</v>
       </c>
@@ -4265,7 +4290,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="29"/>
     </row>
-    <row r="14" spans="1:15" s="30" customFormat="1" ht="45" hidden="1">
+    <row r="14" spans="1:15" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>84</v>
       </c>
@@ -4296,7 +4321,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="29"/>
     </row>
-    <row r="15" spans="1:15" s="30" customFormat="1" ht="45" hidden="1">
+    <row r="15" spans="1:15" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>84</v>
       </c>
@@ -4336,15 +4361,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FCF9AA-C7D3-4F90-926A-E8504169F042}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
@@ -4366,7 +4392,7 @@
     <col min="27" max="27" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="34" customFormat="1" ht="30">
+    <row r="1" spans="1:27" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>144</v>
       </c>
@@ -4449,7 +4475,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="34" customFormat="1" ht="255">
+    <row r="2" spans="1:27" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>162</v>
       </c>
@@ -4512,7 +4538,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="58.5" customHeight="1">
+    <row r="3" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>170</v>
       </c>
@@ -4571,7 +4597,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="195">
+    <row r="4" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>176</v>
       </c>
@@ -4630,7 +4656,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="135">
+    <row r="5" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
@@ -4689,7 +4715,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="409.5">
+    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>188</v>
       </c>
@@ -4748,7 +4774,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="195">
+    <row r="7" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>193</v>
       </c>
@@ -4807,7 +4833,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="150">
+    <row r="8" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>198</v>
       </c>
@@ -4868,7 +4894,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="165">
+    <row r="9" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>205</v>
       </c>
@@ -4929,7 +4955,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="255">
+    <row r="10" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>210</v>
       </c>
@@ -4988,7 +5014,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="60">
+    <row r="11" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>214</v>
       </c>
@@ -5039,7 +5065,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="120">
+    <row r="12" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>218</v>
       </c>
@@ -5102,7 +5128,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="180">
+    <row r="13" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>224</v>
       </c>
@@ -5161,7 +5187,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="90">
+    <row r="14" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>228</v>
       </c>
@@ -5222,7 +5248,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="34" customFormat="1" ht="150">
+    <row r="15" spans="1:27" s="34" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>233</v>
       </c>
@@ -5285,7 +5311,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="58.5" customHeight="1">
+    <row r="16" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>235</v>
       </c>
@@ -5344,7 +5370,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="195">
+    <row r="17" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>238</v>
       </c>
@@ -5403,7 +5429,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="135">
+    <row r="18" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>241</v>
       </c>
@@ -5462,7 +5488,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="409.5">
+    <row r="19" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>244</v>
       </c>
@@ -5521,7 +5547,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="195">
+    <row r="20" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>245</v>
       </c>
@@ -5580,7 +5606,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="150">
+    <row r="21" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>247</v>
       </c>
@@ -5641,7 +5667,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="165">
+    <row r="22" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>248</v>
       </c>
@@ -5702,7 +5728,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="255">
+    <row r="23" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>249</v>
       </c>
@@ -5761,7 +5787,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="60">
+    <row r="24" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>250</v>
       </c>
@@ -5812,7 +5838,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="150">
+    <row r="25" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>251</v>
       </c>
@@ -5875,7 +5901,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="180">
+    <row r="26" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>252</v>
       </c>
@@ -5934,7 +5960,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="90">
+    <row r="27" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>253</v>
       </c>
@@ -5995,7 +6021,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="34" customFormat="1" ht="90">
+    <row r="28" spans="1:27" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>254</v>
       </c>
@@ -6056,7 +6082,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="58.5" customHeight="1">
+    <row r="29" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>255</v>
       </c>
@@ -6113,7 +6139,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="195">
+    <row r="30" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>256</v>
       </c>
@@ -6170,7 +6196,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="90">
+    <row r="31" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>257</v>
       </c>
@@ -6227,7 +6253,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="34" customFormat="1" ht="90">
+    <row r="32" spans="1:27" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>261</v>
       </c>
@@ -6288,7 +6314,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="58.5" customHeight="1">
+    <row r="33" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>262</v>
       </c>
@@ -6345,7 +6371,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="195">
+    <row r="34" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>263</v>
       </c>
@@ -6402,7 +6428,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="135">
+    <row r="35" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>264</v>
       </c>
@@ -6459,7 +6485,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="409.5">
+    <row r="36" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>265</v>
       </c>
@@ -6516,7 +6542,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="195">
+    <row r="37" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>266</v>
       </c>
@@ -6573,7 +6599,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="225">
+    <row r="38" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>267</v>
       </c>
@@ -6632,7 +6658,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="58.5" customHeight="1">
+    <row r="39" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>271</v>
       </c>
@@ -6689,7 +6715,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="58.5" customHeight="1">
+    <row r="40" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>276</v>
       </c>
@@ -6746,7 +6772,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="390">
+    <row r="41" spans="1:27" ht="390" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>281</v>
       </c>
@@ -6801,7 +6827,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="210">
+    <row r="42" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>287</v>
       </c>
@@ -6856,7 +6882,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="135">
+    <row r="43" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>293</v>
       </c>
@@ -6911,7 +6937,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="135">
+    <row r="44" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>299</v>
       </c>
@@ -6966,7 +6992,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="240">
+    <row r="45" spans="1:27" ht="240" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>305</v>
       </c>
@@ -7021,7 +7047,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="165">
+    <row r="46" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>311</v>
       </c>
@@ -7076,7 +7102,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="58.5" customHeight="1">
+    <row r="47" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>317</v>
       </c>
@@ -7133,7 +7159,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="135">
+    <row r="48" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>322</v>
       </c>
@@ -7188,7 +7214,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="210">
+    <row r="49" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>328</v>
       </c>
@@ -7243,7 +7269,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="45">
+    <row r="50" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>334</v>
       </c>
@@ -7298,7 +7324,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="105">
+    <row r="51" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>339</v>
       </c>
@@ -7353,7 +7379,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="58.5" customHeight="1">
+    <row r="52" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>344</v>
       </c>
@@ -7386,7 +7412,7 @@
         <v>348</v>
       </c>
       <c r="L52" s="35"/>
-      <c r="M52" s="39" t="s">
+      <c r="M52" s="55" t="s">
         <v>349</v>
       </c>
       <c r="N52" s="35"/>
@@ -7410,7 +7436,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="195">
+    <row r="53" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>351</v>
       </c>
@@ -7441,7 +7467,7 @@
         <v>354</v>
       </c>
       <c r="L53" s="35"/>
-      <c r="M53" s="39" t="s">
+      <c r="M53" s="55" t="s">
         <v>355</v>
       </c>
       <c r="N53" s="35"/>
@@ -7465,7 +7491,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="210">
+    <row r="54" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>357</v>
       </c>
@@ -7496,7 +7522,7 @@
         <v>360</v>
       </c>
       <c r="L54" s="35"/>
-      <c r="M54" s="39" t="s">
+      <c r="M54" s="55" t="s">
         <v>361</v>
       </c>
       <c r="N54" s="35"/>
@@ -7520,7 +7546,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="45">
+    <row r="55" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>363</v>
       </c>
@@ -7551,7 +7577,7 @@
         <v>366</v>
       </c>
       <c r="L55" s="35"/>
-      <c r="M55" s="39" t="s">
+      <c r="M55" s="55" t="s">
         <v>367</v>
       </c>
       <c r="N55" s="35"/>
@@ -7575,7 +7601,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="135">
+    <row r="56" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>369</v>
       </c>
@@ -7606,7 +7632,7 @@
         <v>370</v>
       </c>
       <c r="L56" s="35"/>
-      <c r="M56" s="39" t="s">
+      <c r="M56" s="55" t="s">
         <v>371</v>
       </c>
       <c r="N56" s="35"/>
@@ -7630,7 +7656,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="120">
+    <row r="57" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>373</v>
       </c>
@@ -7661,10 +7687,10 @@
         <v>375</v>
       </c>
       <c r="L57" s="35"/>
-      <c r="M57" s="39" t="s">
+      <c r="M57" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="N57" s="35"/>
+      <c r="N57" s="56"/>
       <c r="O57" s="35" t="s">
         <v>377</v>
       </c>
@@ -7685,7 +7711,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="58.5" customHeight="1">
+    <row r="58" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>378</v>
       </c>
@@ -7718,7 +7744,7 @@
         <v>381</v>
       </c>
       <c r="L58" s="35"/>
-      <c r="M58" s="39" t="s">
+      <c r="M58" s="54" t="s">
         <v>382</v>
       </c>
       <c r="N58" s="35"/>
@@ -7742,7 +7768,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="225">
+    <row r="59" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>384</v>
       </c>
@@ -7773,7 +7799,7 @@
         <v>387</v>
       </c>
       <c r="L59" s="35"/>
-      <c r="M59" s="39" t="s">
+      <c r="M59" s="54" t="s">
         <v>388</v>
       </c>
       <c r="N59" s="35"/>
@@ -7797,7 +7823,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="225">
+    <row r="60" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>390</v>
       </c>
@@ -7828,7 +7854,7 @@
         <v>393</v>
       </c>
       <c r="L60" s="35"/>
-      <c r="M60" s="39" t="s">
+      <c r="M60" s="54" t="s">
         <v>394</v>
       </c>
       <c r="N60" s="35"/>
@@ -7852,7 +7878,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="120">
+    <row r="61" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>396</v>
       </c>
@@ -7883,7 +7909,7 @@
         <v>399</v>
       </c>
       <c r="L61" s="35"/>
-      <c r="M61" s="39" t="s">
+      <c r="M61" s="54" t="s">
         <v>400</v>
       </c>
       <c r="N61" s="35"/>
@@ -7907,7 +7933,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="45">
+    <row r="62" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>402</v>
       </c>
@@ -7938,7 +7964,7 @@
         <v>404</v>
       </c>
       <c r="L62" s="35"/>
-      <c r="M62" s="39" t="s">
+      <c r="M62" s="54" t="s">
         <v>405</v>
       </c>
       <c r="N62" s="35"/>
@@ -7962,7 +7988,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="58.5" customHeight="1">
+    <row r="63" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>407</v>
       </c>
@@ -8019,7 +8045,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="300">
+    <row r="64" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>412</v>
       </c>
@@ -8074,7 +8100,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="225">
+    <row r="65" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>390</v>
       </c>
@@ -8129,7 +8155,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="120">
+    <row r="66" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>396</v>
       </c>
@@ -8184,7 +8210,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="45">
+    <row r="67" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>402</v>
       </c>
@@ -8239,7 +8265,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="58.5" customHeight="1">
+    <row r="68" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>423</v>
       </c>
@@ -8296,7 +8322,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="225">
+    <row r="69" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>428</v>
       </c>
@@ -8351,7 +8377,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="180">
+    <row r="70" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>432</v>
       </c>
@@ -8406,7 +8432,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="195">
+    <row r="71" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>436</v>
       </c>
@@ -8461,7 +8487,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="240">
+    <row r="72" spans="1:27" ht="240" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>441</v>
       </c>
@@ -8530,21 +8556,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -8722,14 +8733,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD25D9B-AE96-487D-9364-6D4BDEAA848A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf9b6120-988b-41be-8da6-61dea16cb493"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD25D9B-AE96-487D-9364-6D4BDEAA848A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
+++ b/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Z ISM OLSS Operation\General\OLSS Testing Guidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24416C-1736-44B5-94C7-125B02E23979}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0890633-FD2C-4169-9DE2-00D5A8D51132}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" state="hidden" r:id="rId1"/>
@@ -31,10 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -66,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="447">
   <si>
     <t>No</t>
   </si>
@@ -781,10 +778,6 @@
 2. To verify Admin Asset Selling has access to Manage Memo</t>
   </si>
   <si>
-    <t>Username : ANTONIUS FEDRIK
-Password : [free text]</t>
-  </si>
-  <si>
     <t>1. Enter the valid admin Asset Selling User ID
 2. Enter valid password
 3. Click on Login
@@ -941,10 +934,6 @@
     <t>1. To verify Division Head can Appprove Memo</t>
   </si>
   <si>
-    <t>Username : VERDIAN
-Password : [free text]</t>
-  </si>
-  <si>
     <t>1. Input Username and Password
 2. Click on Asset Selling - Manage Memo
 3. Click on Detail Memo Pengajuan
@@ -1219,13 +1208,6 @@
     <t>1. To verify Admin Asset Selling can select Disposal Number from rejected memo</t>
   </si>
   <si>
-    <t>-- Login as Admin Asset Selling
-1. Click on Create
-2. Select Memo Type : Direct Selling
-3. Select Disposal Number
-4. Click Continue</t>
-  </si>
-  <si>
     <t>1. System should display Rejected disposal in Disposal Selection screen</t>
   </si>
   <si>
@@ -1236,11 +1218,6 @@
   </si>
   <si>
     <t>1. To verify user can create new Calculation of Operating Lease</t>
-  </si>
-  <si>
-    <t>-- Login as IVAN ANGELO
-1. Click on MARKETING - Calculation of Operating Lease
-2. Click Create</t>
   </si>
   <si>
     <t>1. System should allow user to access Calculation of Operating Lease menu
@@ -1436,10 +1413,6 @@
     <t>1. To verify user can access Operating Lease Quotation</t>
   </si>
   <si>
-    <t>-- Login as IVAN ANGELO
-1. Click on MARKETING - Operating Lease Quotation</t>
-  </si>
-  <si>
     <t>1. System should allow user to access Operating Lease Quotation menu
 2. System should show Operating Lease Quotation screen</t>
   </si>
@@ -1517,13 +1490,6 @@
     <t>1. To verify user can validate Operating Lease Quotation</t>
   </si>
   <si>
-    <t>-- Login as Herni Hembang
-1. Click on MARKETING - Operating Lease Quotation
-2. Search previous Quotation Number
-3. Click Detail
-4. Click Validate</t>
-  </si>
-  <si>
     <t>1. System should allow user to validate Quotation Number</t>
   </si>
   <si>
@@ -1540,10 +1506,6 @@
   </si>
   <si>
     <t>1. To verify user can access to SKD Process SKD Menu</t>
-  </si>
-  <si>
-    <t>-- Login as IVAN ANGELO
-1. Click on MARKETING - Board of Director Decree/SKD Process</t>
   </si>
   <si>
     <t>1. System should allow user to access SKD Process Menu
@@ -1630,14 +1592,6 @@
 </t>
   </si>
   <si>
-    <t>-- Login as Herni Hembang
-1. Click on MARKETING - Board of Director Decree/SKD Process
-2. Search previous SKD Number
-3. Click Detail
-4. Check All Approval List
-5. Click Check</t>
-  </si>
-  <si>
     <t>1. System should allow user to Checked SKD
 2. While user has Check SKD, system should show message "Success! Number: xxxxxxx/x/xx/xx/YYYY has been checked. "
 3. Status of SKD should be updated to Checked</t>
@@ -1653,13 +1607,6 @@
 </t>
   </si>
   <si>
-    <t>-- Login as IRMA VERDIAN
-1. Click on MARKETING - Board of Director Decree/SKD Process
-2. Search previous SKD Number
-3. Click Detail
-4. Click Approve</t>
-  </si>
-  <si>
     <t>1. System should allow user to Validate SKD
 2. While user has Check SKD, system should show message "Success! Number: xxxxxxx/x/xx/xx/YYYY has been approved. "
 3. Status of SKD should be updated to Approved</t>
@@ -1675,10 +1622,6 @@
   </si>
   <si>
     <t>1. To verify user can access to Agreement Information Inquiry</t>
-  </si>
-  <si>
-    <t>-- Login as Chintya Kristi jkn
-1. Click on MARKETING - Agreement Information Inquiry</t>
   </si>
   <si>
     <t>1. System should allow user to access Agreement Information Inquiry Menu
@@ -1751,13 +1694,6 @@
 </t>
   </si>
   <si>
-    <t>-- Login as VERDIAN
-1. Click on MARKETING - Agreement Information Inquiry
-2. Search previous Agreement Number
-3. Click Detail
-4. Click Approve</t>
-  </si>
-  <si>
     <t>1. System should allow user to Approve Agreement
 2. While user has Approve Agreement, system should show message "Success! Number: xxxxxxx/x/xx/xx/YYYY has been approved. "
 3. Status of Agreement should be updated to Approved</t>
@@ -1786,10 +1722,6 @@
   </si>
   <si>
     <t>1. To verify user can access to Procurement</t>
-  </si>
-  <si>
-    <t>-- Login as Chintya Kristi jkn
-1. Click on MARKETING - Monitoring Purchase Order</t>
   </si>
   <si>
     <t>1. System should allow user to access Monitoring Purchase Order Menu
@@ -1857,10 +1789,6 @@
     <t>1. To verify user can access to Monitoring Unit Preparation</t>
   </si>
   <si>
-    <t>-- Login as Pathul Wadi
-1. Click on MANAGEMENT - Monitoring Unit Preparation</t>
-  </si>
-  <si>
     <t>1. System should allow user to access Monitoring Unit Preparation Menu
 2. System should show Monitoring Unit Preparation screen</t>
   </si>
@@ -1950,6 +1878,403 @@
 2. System should allow user to Save as Final BAST
 3. After user has Save as Final, system should show message "Success! BAST Supplier Number: xxxxx/BSP/JKC/MM/YYYY and BAST Customer Number: xxxxx/BCT/JKC/MM/YYYY has been completed!"
 4. After user has save as final BAST, transaction should be appear in Actual Tab with progress status  Confirm to Supplier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chintya Kristi jkn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Click on MARKETING - Agreement Information Inquiry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IRMA VERDIAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on MARKETING - Board of Director Decree/SKD Process
+2. Search previous SKD Number
+3. Click Detail
+4. Click Approve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-- Login as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Herni Hembang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on MARKETING - Board of Director Decree/SKD Process
+2. Search previous SKD Number
+3. Click Detail
+4. Check All Approval List
+5. Click Check</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VERDIAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on MARKETING - Agreement Information Inquiry
+2. Search previous Agreement Number
+3. Click Detail
+4. Click Approve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chintya Kristi jkn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on MARKETING - Monitoring Purchase Order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VERDIAN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Click on MARKETING - Agreement Information Inquiry
+2. Search previous Agreement Number
+3. Click Detail
+4. Click Approve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pathul Wadi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Click on MANAGEMENT - Monitoring Unit Preparation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IVAN ANGELO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Click on MARKETING - Calculation of Operating Lease
+2. Click Create</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IVAN ANGELO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Click on MARKETING - Operating Lease Quotation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Herni Hembang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Click on MARKETING - Operating Lease Quotation
+2. Search previous Quotation Number
+3. Click Detail
+4. Click Validate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IVAN ANGELO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Click on MARKETING - Board of Director Decree/SKD Process</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Admin Asset Selling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on Create
+2. Select Memo Type : Direct Selling
+3. Select Disposal Number
+4. Click Continue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Username : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANTONIUS FEDRIK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Password : [free text]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Username : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VERDIAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Password : [free text]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1961,7 +2286,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2020,8 +2345,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2060,13 +2400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF66"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2471,9 +2817,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2487,6 +2830,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2512,13 +2861,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2532,6 +2878,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF99FF99"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FF99FF66"/>
       <color rgb="FF0066FF"/>
     </mruColors>
   </colors>
@@ -2898,16 +3248,16 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <v>44209</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="39">
         <v>44225</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="40">
         <v>44209</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="40">
         <v>44225</v>
       </c>
       <c r="G2" s="2"/>
@@ -2923,16 +3273,16 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="39">
         <v>44214</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="39">
         <v>44214</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>44214</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="40">
         <v>44214</v>
       </c>
       <c r="G3" s="2"/>
@@ -2948,16 +3298,16 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>44214</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>44218</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <v>44214</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <v>44218</v>
       </c>
       <c r="G4" s="2"/>
@@ -2973,16 +3323,16 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>44221</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>44225</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <v>44221</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <v>44225</v>
       </c>
       <c r="G5" s="24">
@@ -3003,16 +3353,16 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <v>44228</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="39">
         <v>44232</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <v>44278</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <v>44278</v>
       </c>
       <c r="G6" s="24">
@@ -3033,16 +3383,16 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>44235</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <v>44239</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <v>44278</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <v>44278</v>
       </c>
       <c r="G7" s="24">
@@ -3063,16 +3413,16 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>44242</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <v>44246</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>44279</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>44279</v>
       </c>
       <c r="G8" s="24">
@@ -3093,16 +3443,16 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>44249</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="39">
         <v>44253</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <v>44278</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>44278</v>
       </c>
       <c r="G9" s="24">
@@ -3123,16 +3473,16 @@
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>44256</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <v>44260</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <v>44279</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>44279</v>
       </c>
       <c r="G10" s="24">
@@ -3153,16 +3503,16 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <v>44263</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="39">
         <v>44267</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <v>44279</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <v>44279</v>
       </c>
       <c r="G11" s="24">
@@ -3183,16 +3533,16 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <v>44277</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="39">
         <v>44281</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <v>44279</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="40">
         <v>44280</v>
       </c>
       <c r="G12" s="2"/>
@@ -3208,16 +3558,16 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="39">
         <v>44284</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="39">
         <v>44284</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="40">
         <v>44284</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <v>44284</v>
       </c>
       <c r="G13" s="2"/>
@@ -3227,16 +3577,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="24">
         <f>AVERAGE(I2:I13)</f>
         <v>0.625</v>
@@ -3309,7 +3659,7 @@
       <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="50" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="23"/>
@@ -3327,7 +3677,7 @@
       <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -3342,7 +3692,7 @@
       <c r="D4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -3357,7 +3707,7 @@
       <c r="D5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3374,7 +3724,7 @@
       <c r="D6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -3389,7 +3739,7 @@
       <c r="D7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
@@ -3435,7 +3785,7 @@
       <c r="F1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3458,7 +3808,7 @@
       <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="39">
         <v>44225</v>
       </c>
     </row>
@@ -3481,7 +3831,7 @@
       <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="39">
         <v>44225</v>
       </c>
     </row>
@@ -3504,7 +3854,7 @@
       <c r="F4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="39">
         <v>44225</v>
       </c>
     </row>
@@ -3527,7 +3877,7 @@
       <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <v>44225</v>
       </c>
     </row>
@@ -3550,7 +3900,7 @@
       <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="39">
         <v>44245</v>
       </c>
     </row>
@@ -3573,7 +3923,7 @@
       <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="39">
         <v>44245</v>
       </c>
     </row>
@@ -3596,7 +3946,7 @@
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <v>44278</v>
       </c>
     </row>
@@ -3619,7 +3969,7 @@
       <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="39">
         <v>44285</v>
       </c>
     </row>
@@ -3642,7 +3992,7 @@
       <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <v>44286</v>
       </c>
     </row>
@@ -3665,7 +4015,7 @@
       <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="39">
         <v>44286</v>
       </c>
     </row>
@@ -3688,7 +4038,7 @@
       <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="39">
         <v>44286</v>
       </c>
     </row>
@@ -3711,21 +4061,21 @@
       <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>44313</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="43">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="42">
         <v>1</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="43">
         <v>1</v>
       </c>
       <c r="G14" s="1"/>
@@ -3747,7 +4097,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,7 +4190,7 @@
       <c r="K2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="45">
+      <c r="L2" s="44">
         <v>44225</v>
       </c>
       <c r="M2" s="25" t="s">
@@ -3885,7 +4235,7 @@
       <c r="K3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="44">
         <v>44225</v>
       </c>
       <c r="M3" s="25" t="s">
@@ -3930,7 +4280,7 @@
       <c r="K4" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="44">
         <v>44225</v>
       </c>
       <c r="M4" s="25" t="s">
@@ -3975,7 +4325,7 @@
       <c r="K5" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="44">
         <v>44225</v>
       </c>
       <c r="M5" s="25" t="s">
@@ -4018,7 +4368,7 @@
       <c r="K6" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="44">
         <v>44245</v>
       </c>
       <c r="M6" s="25"/>
@@ -4055,7 +4405,7 @@
       <c r="K7" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="44">
         <v>44245</v>
       </c>
       <c r="M7" s="25"/>
@@ -4094,7 +4444,7 @@
       <c r="K8" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="44">
         <v>44278</v>
       </c>
       <c r="M8" s="25"/>
@@ -4133,7 +4483,7 @@
       <c r="K9" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="44">
         <v>44285</v>
       </c>
       <c r="M9" s="25"/>
@@ -4365,9 +4715,9 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
+      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,16 +4860,16 @@
         <v>165</v>
       </c>
       <c r="L2" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="M2" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="N2" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
@@ -4540,7 +4890,7 @@
     </row>
     <row r="3" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>84</v>
@@ -4562,23 +4912,23 @@
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>172</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>173</v>
       </c>
       <c r="L3" s="35"/>
       <c r="M3" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>174</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>175</v>
       </c>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
@@ -4599,7 +4949,7 @@
     </row>
     <row r="4" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>84</v>
@@ -4621,23 +4971,23 @@
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="K4" s="35" t="s">
         <v>178</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>179</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>181</v>
       </c>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
@@ -4658,7 +5008,7 @@
     </row>
     <row r="5" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>84</v>
@@ -4680,23 +5030,23 @@
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="K5" s="35" t="s">
         <v>184</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>185</v>
       </c>
       <c r="L5" s="35"/>
       <c r="M5" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>187</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
@@ -4717,7 +5067,7 @@
     </row>
     <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>84</v>
@@ -4739,23 +5089,23 @@
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="35" t="s">
         <v>189</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O6" s="35" t="s">
         <v>191</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>192</v>
       </c>
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
@@ -4776,7 +5126,7 @@
     </row>
     <row r="7" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>84</v>
@@ -4798,23 +5148,23 @@
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="35" t="s">
         <v>194</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="L7" s="35"/>
       <c r="M7" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O7" s="35" t="s">
         <v>196</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>197</v>
       </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -4835,7 +5185,7 @@
     </row>
     <row r="8" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>84</v>
@@ -4857,25 +5207,25 @@
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J8" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="L8" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="M8" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="N8" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="O8" s="35" t="s">
         <v>202</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>204</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
@@ -4896,7 +5246,7 @@
     </row>
     <row r="9" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>84</v>
@@ -4918,25 +5268,25 @@
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J9" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="M9" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="N9" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O9" s="35" t="s">
         <v>207</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>209</v>
       </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
@@ -4957,7 +5307,7 @@
     </row>
     <row r="10" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>84</v>
@@ -4979,23 +5329,23 @@
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
@@ -5016,7 +5366,7 @@
     </row>
     <row r="11" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>84</v>
@@ -5027,7 +5377,7 @@
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>87</v>
@@ -5035,18 +5385,18 @@
       <c r="H11" s="26"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -5067,7 +5417,7 @@
     </row>
     <row r="12" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>84</v>
@@ -5091,25 +5441,25 @@
         <v>95</v>
       </c>
       <c r="I12" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="L12" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="M12" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="N12" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O12" s="35" t="s">
         <v>221</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>223</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -5130,7 +5480,7 @@
     </row>
     <row r="13" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>84</v>
@@ -5152,23 +5502,23 @@
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -5189,7 +5539,7 @@
     </row>
     <row r="14" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>84</v>
@@ -5211,25 +5561,25 @@
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J14" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="M14" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="N14" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="O14" s="35" t="s">
         <v>230</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>232</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -5250,13 +5600,13 @@
     </row>
     <row r="15" spans="1:27" s="34" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>28</v>
@@ -5283,16 +5633,16 @@
         <v>165</v>
       </c>
       <c r="L15" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="M15" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="N15" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="O15" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -5313,13 +5663,13 @@
     </row>
     <row r="16" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>28</v>
@@ -5335,23 +5685,23 @@
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="K16" s="35" t="s">
         <v>172</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>173</v>
       </c>
       <c r="L16" s="35"/>
       <c r="M16" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -5372,13 +5722,13 @@
     </row>
     <row r="17" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>28</v>
@@ -5394,23 +5744,23 @@
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="N17" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>181</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
@@ -5431,13 +5781,13 @@
     </row>
     <row r="18" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>28</v>
@@ -5453,23 +5803,23 @@
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J18" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>184</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>185</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
@@ -5490,13 +5840,13 @@
     </row>
     <row r="19" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>28</v>
@@ -5512,23 +5862,23 @@
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="35" t="s">
         <v>189</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="L19" s="35"/>
       <c r="M19" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" s="35" t="s">
         <v>191</v>
-      </c>
-      <c r="N19" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O19" s="35" t="s">
-        <v>192</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
@@ -5549,13 +5899,13 @@
     </row>
     <row r="20" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>28</v>
@@ -5571,23 +5921,23 @@
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L20" s="35"/>
       <c r="M20" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" s="35" t="s">
         <v>196</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>197</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
@@ -5608,13 +5958,13 @@
     </row>
     <row r="21" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>28</v>
@@ -5630,25 +5980,25 @@
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J21" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="L21" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="M21" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="L21" s="35" t="s">
+      <c r="N21" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="M21" s="35" t="s">
+      <c r="O21" s="35" t="s">
         <v>202</v>
-      </c>
-      <c r="N21" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>204</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
@@ -5669,13 +6019,13 @@
     </row>
     <row r="22" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>28</v>
@@ -5691,25 +6041,25 @@
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J22" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="M22" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="N22" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" s="35" t="s">
         <v>207</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="N22" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>209</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -5730,13 +6080,13 @@
     </row>
     <row r="23" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>28</v>
@@ -5752,23 +6102,23 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
@@ -5789,18 +6139,18 @@
     </row>
     <row r="24" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>97</v>
@@ -5808,18 +6158,18 @@
       <c r="H24" s="26"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
       <c r="N24" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
@@ -5840,13 +6190,13 @@
     </row>
     <row r="25" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>28</v>
@@ -5864,25 +6214,25 @@
         <v>101</v>
       </c>
       <c r="I25" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="L25" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="M25" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="N25" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25" s="35" t="s">
         <v>221</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="M25" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="N25" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>223</v>
       </c>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
@@ -5903,13 +6253,13 @@
     </row>
     <row r="26" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>28</v>
@@ -5925,23 +6275,23 @@
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
@@ -5962,13 +6312,13 @@
     </row>
     <row r="27" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>28</v>
@@ -5984,25 +6334,25 @@
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J27" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="M27" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="N27" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" s="35" t="s">
         <v>230</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="M27" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="N27" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="O27" s="35" t="s">
-        <v>232</v>
       </c>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
@@ -6023,7 +6373,7 @@
     </row>
     <row r="28" spans="1:27" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>84</v>
@@ -6054,16 +6404,16 @@
         <v>165</v>
       </c>
       <c r="L28" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="M28" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="N28" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="N28" s="35" t="s">
+      <c r="O28" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="O28" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
@@ -6084,7 +6434,7 @@
     </row>
     <row r="29" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>84</v>
@@ -6104,23 +6454,23 @@
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="J29" s="35" t="s">
+      <c r="K29" s="35" t="s">
         <v>172</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>173</v>
       </c>
       <c r="L29" s="35"/>
       <c r="M29" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O29" s="35" t="s">
         <v>174</v>
-      </c>
-      <c r="N29" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O29" s="35" t="s">
-        <v>175</v>
       </c>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
@@ -6141,7 +6491,7 @@
     </row>
     <row r="30" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>84</v>
@@ -6161,23 +6511,23 @@
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="J30" s="35" t="s">
+      <c r="K30" s="35" t="s">
         <v>178</v>
-      </c>
-      <c r="K30" s="35" t="s">
-        <v>179</v>
       </c>
       <c r="L30" s="35"/>
       <c r="M30" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="N30" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O30" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="N30" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O30" s="35" t="s">
-        <v>181</v>
       </c>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
@@ -6198,7 +6548,7 @@
     </row>
     <row r="31" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>84</v>
@@ -6218,23 +6568,23 @@
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L31" s="35"/>
       <c r="M31" s="35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
@@ -6255,7 +6605,7 @@
     </row>
     <row r="32" spans="1:27" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>84</v>
@@ -6286,16 +6636,16 @@
         <v>165</v>
       </c>
       <c r="L32" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="M32" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="M32" s="35" t="s">
+      <c r="N32" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="N32" s="35" t="s">
+      <c r="O32" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="O32" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
@@ -6316,7 +6666,7 @@
     </row>
     <row r="33" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>84</v>
@@ -6336,23 +6686,23 @@
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="J33" s="35" t="s">
+      <c r="K33" s="35" t="s">
         <v>172</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>173</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N33" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
@@ -6373,7 +6723,7 @@
     </row>
     <row r="34" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>84</v>
@@ -6393,23 +6743,23 @@
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O34" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="N34" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O34" s="35" t="s">
-        <v>181</v>
       </c>
       <c r="P34" s="35"/>
       <c r="Q34" s="35"/>
@@ -6430,7 +6780,7 @@
     </row>
     <row r="35" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>84</v>
@@ -6450,23 +6800,23 @@
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J35" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K35" s="35" t="s">
         <v>184</v>
-      </c>
-      <c r="K35" s="35" t="s">
-        <v>185</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N35" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P35" s="35"/>
       <c r="Q35" s="35"/>
@@ -6487,7 +6837,7 @@
     </row>
     <row r="36" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>84</v>
@@ -6507,23 +6857,23 @@
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K36" s="35" t="s">
         <v>189</v>
-      </c>
-      <c r="J36" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N36" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36" s="35" t="s">
         <v>191</v>
-      </c>
-      <c r="N36" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O36" s="35" t="s">
-        <v>192</v>
       </c>
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
@@ -6544,7 +6894,7 @@
     </row>
     <row r="37" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>84</v>
@@ -6564,23 +6914,23 @@
       </c>
       <c r="H37" s="26"/>
       <c r="I37" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="N37" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O37" s="35" t="s">
         <v>196</v>
-      </c>
-      <c r="N37" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O37" s="35" t="s">
-        <v>197</v>
       </c>
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
@@ -6601,7 +6951,7 @@
     </row>
     <row r="38" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>84</v>
@@ -6621,25 +6971,25 @@
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K38" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="N38" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="O38" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="M38" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="N38" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="O38" s="35" t="s">
-        <v>270</v>
       </c>
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
@@ -6660,7 +7010,7 @@
     </row>
     <row r="39" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>84</v>
@@ -6680,23 +7030,23 @@
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J39" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="35"/>
+      <c r="M39" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="N39" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" s="35" t="s">
         <v>272</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="L39" s="35"/>
-      <c r="M39" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="N39" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O39" s="35" t="s">
-        <v>275</v>
       </c>
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
@@ -6717,7 +7067,7 @@
     </row>
     <row r="40" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>84</v>
@@ -6742,18 +7092,18 @@
         <v>53</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L40" s="35"/>
-      <c r="M40" s="39" t="s">
-        <v>279</v>
+      <c r="M40" s="45" t="s">
+        <v>440</v>
       </c>
       <c r="N40" s="35"/>
       <c r="O40" s="35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
@@ -6774,7 +7124,7 @@
     </row>
     <row r="41" spans="1:27" ht="390" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>84</v>
@@ -6794,21 +7144,21 @@
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="35" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L41" s="35"/>
-      <c r="M41" s="39" t="s">
-        <v>285</v>
+      <c r="M41" s="45" t="s">
+        <v>281</v>
       </c>
       <c r="N41" s="35"/>
       <c r="O41" s="35" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
@@ -6829,7 +7179,7 @@
     </row>
     <row r="42" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>84</v>
@@ -6849,21 +7199,21 @@
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L42" s="35"/>
-      <c r="M42" s="39" t="s">
-        <v>291</v>
+      <c r="M42" s="45" t="s">
+        <v>287</v>
       </c>
       <c r="N42" s="35"/>
       <c r="O42" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
@@ -6884,7 +7234,7 @@
     </row>
     <row r="43" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>84</v>
@@ -6904,21 +7254,21 @@
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="35" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L43" s="35"/>
-      <c r="M43" s="39" t="s">
-        <v>297</v>
+      <c r="M43" s="45" t="s">
+        <v>293</v>
       </c>
       <c r="N43" s="35"/>
       <c r="O43" s="35" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
@@ -6939,7 +7289,7 @@
     </row>
     <row r="44" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>84</v>
@@ -6959,21 +7309,21 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J44" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L44" s="35"/>
-      <c r="M44" s="39" t="s">
-        <v>303</v>
+      <c r="M44" s="45" t="s">
+        <v>299</v>
       </c>
       <c r="N44" s="35"/>
       <c r="O44" s="35" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P44" s="35"/>
       <c r="Q44" s="35"/>
@@ -6994,7 +7344,7 @@
     </row>
     <row r="45" spans="1:27" ht="240" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>84</v>
@@ -7014,21 +7364,21 @@
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="35" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K45" s="35" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L45" s="35"/>
-      <c r="M45" s="39" t="s">
-        <v>309</v>
+      <c r="M45" s="45" t="s">
+        <v>305</v>
       </c>
       <c r="N45" s="35"/>
       <c r="O45" s="35" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P45" s="35"/>
       <c r="Q45" s="35"/>
@@ -7049,7 +7399,7 @@
     </row>
     <row r="46" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>84</v>
@@ -7069,21 +7419,21 @@
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="35" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L46" s="35"/>
-      <c r="M46" s="39" t="s">
-        <v>315</v>
+      <c r="M46" s="45" t="s">
+        <v>311</v>
       </c>
       <c r="N46" s="35"/>
       <c r="O46" s="35" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P46" s="35"/>
       <c r="Q46" s="35"/>
@@ -7104,7 +7454,7 @@
     </row>
     <row r="47" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>84</v>
@@ -7129,18 +7479,18 @@
         <v>56</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L47" s="35"/>
-      <c r="M47" s="39" t="s">
-        <v>320</v>
+      <c r="M47" s="55" t="s">
+        <v>441</v>
       </c>
       <c r="N47" s="35"/>
       <c r="O47" s="35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P47" s="35"/>
       <c r="Q47" s="35"/>
@@ -7161,7 +7511,7 @@
     </row>
     <row r="48" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>84</v>
@@ -7181,21 +7531,21 @@
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="35" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L48" s="35"/>
-      <c r="M48" s="39" t="s">
-        <v>326</v>
+      <c r="M48" s="55" t="s">
+        <v>321</v>
       </c>
       <c r="N48" s="35"/>
       <c r="O48" s="35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P48" s="35"/>
       <c r="Q48" s="35"/>
@@ -7216,7 +7566,7 @@
     </row>
     <row r="49" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>84</v>
@@ -7236,21 +7586,21 @@
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="35" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L49" s="35"/>
-      <c r="M49" s="39" t="s">
-        <v>332</v>
+      <c r="M49" s="55" t="s">
+        <v>327</v>
       </c>
       <c r="N49" s="35"/>
       <c r="O49" s="35" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P49" s="35"/>
       <c r="Q49" s="35"/>
@@ -7271,7 +7621,7 @@
     </row>
     <row r="50" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>84</v>
@@ -7294,18 +7644,18 @@
         <v>56</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L50" s="35"/>
-      <c r="M50" s="39" t="s">
-        <v>337</v>
+      <c r="M50" s="55" t="s">
+        <v>332</v>
       </c>
       <c r="N50" s="35"/>
       <c r="O50" s="35" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P50" s="35"/>
       <c r="Q50" s="35"/>
@@ -7326,7 +7676,7 @@
     </row>
     <row r="51" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>84</v>
@@ -7349,18 +7699,18 @@
         <v>56</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L51" s="35"/>
-      <c r="M51" s="39" t="s">
-        <v>342</v>
+      <c r="M51" s="56" t="s">
+        <v>442</v>
       </c>
       <c r="N51" s="35"/>
       <c r="O51" s="35" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P51" s="35"/>
       <c r="Q51" s="35"/>
@@ -7381,7 +7731,7 @@
     </row>
     <row r="52" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>84</v>
@@ -7400,24 +7750,24 @@
         <v>119</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L52" s="35"/>
-      <c r="M52" s="55" t="s">
-        <v>349</v>
+      <c r="M52" s="45" t="s">
+        <v>443</v>
       </c>
       <c r="N52" s="35"/>
       <c r="O52" s="35" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P52" s="35"/>
       <c r="Q52" s="35"/>
@@ -7438,7 +7788,7 @@
     </row>
     <row r="53" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>84</v>
@@ -7458,21 +7808,21 @@
       </c>
       <c r="H53" s="26"/>
       <c r="I53" s="35" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L53" s="35"/>
-      <c r="M53" s="55" t="s">
-        <v>355</v>
+      <c r="M53" s="45" t="s">
+        <v>348</v>
       </c>
       <c r="N53" s="35"/>
       <c r="O53" s="35" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="P53" s="35"/>
       <c r="Q53" s="35"/>
@@ -7493,7 +7843,7 @@
     </row>
     <row r="54" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>84</v>
@@ -7513,21 +7863,21 @@
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="35" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J54" s="35" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K54" s="35" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L54" s="35"/>
-      <c r="M54" s="55" t="s">
-        <v>361</v>
+      <c r="M54" s="45" t="s">
+        <v>354</v>
       </c>
       <c r="N54" s="35"/>
       <c r="O54" s="35" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P54" s="35"/>
       <c r="Q54" s="35"/>
@@ -7548,7 +7898,7 @@
     </row>
     <row r="55" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>84</v>
@@ -7568,21 +7918,21 @@
       </c>
       <c r="H55" s="26"/>
       <c r="I55" s="35" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L55" s="35"/>
-      <c r="M55" s="55" t="s">
-        <v>367</v>
+      <c r="M55" s="45" t="s">
+        <v>360</v>
       </c>
       <c r="N55" s="35"/>
       <c r="O55" s="35" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="P55" s="35"/>
       <c r="Q55" s="35"/>
@@ -7603,7 +7953,7 @@
     </row>
     <row r="56" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>84</v>
@@ -7623,21 +7973,21 @@
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="J56" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="J56" s="35" t="s">
-        <v>365</v>
-      </c>
       <c r="K56" s="35" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L56" s="35"/>
-      <c r="M56" s="55" t="s">
-        <v>371</v>
+      <c r="M56" s="45" t="s">
+        <v>435</v>
       </c>
       <c r="N56" s="35"/>
       <c r="O56" s="35" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P56" s="35"/>
       <c r="Q56" s="35"/>
@@ -7658,7 +8008,7 @@
     </row>
     <row r="57" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B57" s="35" t="s">
         <v>84</v>
@@ -7678,21 +8028,21 @@
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="35" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L57" s="35"/>
-      <c r="M57" s="55" t="s">
-        <v>376</v>
-      </c>
-      <c r="N57" s="56"/>
+      <c r="M57" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="N57" s="46"/>
       <c r="O57" s="35" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="P57" s="35"/>
       <c r="Q57" s="35"/>
@@ -7713,7 +8063,7 @@
     </row>
     <row r="58" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>84</v>
@@ -7735,21 +8085,21 @@
         <v>125</v>
       </c>
       <c r="I58" s="35" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J58" s="35" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L58" s="35"/>
-      <c r="M58" s="54" t="s">
-        <v>382</v>
+      <c r="M58" s="55" t="s">
+        <v>433</v>
       </c>
       <c r="N58" s="35"/>
       <c r="O58" s="35" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="P58" s="35"/>
       <c r="Q58" s="35"/>
@@ -7770,7 +8120,7 @@
     </row>
     <row r="59" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>84</v>
@@ -7790,21 +8140,21 @@
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="35" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="L59" s="35"/>
-      <c r="M59" s="54" t="s">
-        <v>388</v>
+      <c r="M59" s="55" t="s">
+        <v>378</v>
       </c>
       <c r="N59" s="35"/>
       <c r="O59" s="35" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="P59" s="35"/>
       <c r="Q59" s="35"/>
@@ -7825,7 +8175,7 @@
     </row>
     <row r="60" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>84</v>
@@ -7845,21 +8195,21 @@
       </c>
       <c r="H60" s="26"/>
       <c r="I60" s="35" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="J60" s="35" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L60" s="35"/>
-      <c r="M60" s="54" t="s">
-        <v>394</v>
+      <c r="M60" s="55" t="s">
+        <v>384</v>
       </c>
       <c r="N60" s="35"/>
       <c r="O60" s="35" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="P60" s="35"/>
       <c r="Q60" s="35"/>
@@ -7880,7 +8230,7 @@
     </row>
     <row r="61" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>84</v>
@@ -7900,21 +8250,21 @@
       </c>
       <c r="H61" s="26"/>
       <c r="I61" s="35" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="J61" s="35" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L61" s="35"/>
-      <c r="M61" s="54" t="s">
-        <v>400</v>
+      <c r="M61" s="56" t="s">
+        <v>436</v>
       </c>
       <c r="N61" s="35"/>
       <c r="O61" s="35" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="P61" s="35"/>
       <c r="Q61" s="35"/>
@@ -7935,7 +8285,7 @@
     </row>
     <row r="62" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>84</v>
@@ -7955,21 +8305,21 @@
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="35" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="J62" s="35" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="L62" s="35"/>
-      <c r="M62" s="54" t="s">
-        <v>405</v>
+      <c r="M62" s="56" t="s">
+        <v>394</v>
       </c>
       <c r="N62" s="35"/>
       <c r="O62" s="35" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="P62" s="35"/>
       <c r="Q62" s="35"/>
@@ -7990,7 +8340,7 @@
     </row>
     <row r="63" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>84</v>
@@ -8015,18 +8365,18 @@
         <v>65</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="L63" s="35"/>
-      <c r="M63" s="39" t="s">
-        <v>410</v>
+      <c r="M63" s="45" t="s">
+        <v>437</v>
       </c>
       <c r="N63" s="35"/>
       <c r="O63" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="P63" s="35"/>
       <c r="Q63" s="35"/>
@@ -8047,7 +8397,7 @@
     </row>
     <row r="64" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>84</v>
@@ -8067,21 +8417,21 @@
       </c>
       <c r="H64" s="26"/>
       <c r="I64" s="35" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="J64" s="35" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="L64" s="35"/>
-      <c r="M64" s="39" t="s">
-        <v>416</v>
+      <c r="M64" s="45" t="s">
+        <v>404</v>
       </c>
       <c r="N64" s="35"/>
       <c r="O64" s="35" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P64" s="35"/>
       <c r="Q64" s="35"/>
@@ -8102,7 +8452,7 @@
     </row>
     <row r="65" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B65" s="35" t="s">
         <v>84</v>
@@ -8122,21 +8472,21 @@
       </c>
       <c r="H65" s="26"/>
       <c r="I65" s="35" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="J65" s="35" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="K65" s="35" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="L65" s="35"/>
-      <c r="M65" s="39" t="s">
-        <v>421</v>
+      <c r="M65" s="45" t="s">
+        <v>409</v>
       </c>
       <c r="N65" s="35"/>
       <c r="O65" s="35" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="P65" s="35"/>
       <c r="Q65" s="35"/>
@@ -8157,7 +8507,7 @@
     </row>
     <row r="66" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>84</v>
@@ -8177,21 +8527,21 @@
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="35" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K66" s="35" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L66" s="35"/>
-      <c r="M66" s="39" t="s">
-        <v>400</v>
+      <c r="M66" s="55" t="s">
+        <v>438</v>
       </c>
       <c r="N66" s="35"/>
       <c r="O66" s="35" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="P66" s="35"/>
       <c r="Q66" s="35"/>
@@ -8212,7 +8562,7 @@
     </row>
     <row r="67" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>84</v>
@@ -8232,21 +8582,21 @@
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="35" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K67" s="35" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="L67" s="35"/>
-      <c r="M67" s="39" t="s">
-        <v>405</v>
+      <c r="M67" s="55" t="s">
+        <v>394</v>
       </c>
       <c r="N67" s="35"/>
       <c r="O67" s="35" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="P67" s="35"/>
       <c r="Q67" s="35"/>
@@ -8267,7 +8617,7 @@
     </row>
     <row r="68" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B68" s="35" t="s">
         <v>84</v>
@@ -8292,18 +8642,18 @@
         <v>69</v>
       </c>
       <c r="J68" s="35" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="L68" s="35"/>
-      <c r="M68" s="39" t="s">
-        <v>426</v>
+      <c r="M68" s="55" t="s">
+        <v>439</v>
       </c>
       <c r="N68" s="35"/>
       <c r="O68" s="35" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
@@ -8324,7 +8674,7 @@
     </row>
     <row r="69" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>84</v>
@@ -8347,18 +8697,18 @@
         <v>69</v>
       </c>
       <c r="J69" s="35" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="L69" s="35"/>
-      <c r="M69" s="39" t="s">
-        <v>430</v>
+      <c r="M69" s="55" t="s">
+        <v>417</v>
       </c>
       <c r="N69" s="35"/>
       <c r="O69" s="35" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="P69" s="35"/>
       <c r="Q69" s="35"/>
@@ -8379,7 +8729,7 @@
     </row>
     <row r="70" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>84</v>
@@ -8402,18 +8752,18 @@
         <v>69</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="L70" s="35"/>
-      <c r="M70" s="39" t="s">
-        <v>434</v>
+      <c r="M70" s="55" t="s">
+        <v>421</v>
       </c>
       <c r="N70" s="35"/>
       <c r="O70" s="35" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="P70" s="35"/>
       <c r="Q70" s="35"/>
@@ -8434,7 +8784,7 @@
     </row>
     <row r="71" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>84</v>
@@ -8457,18 +8807,18 @@
         <v>69</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L71" s="35"/>
-      <c r="M71" s="39" t="s">
-        <v>439</v>
+      <c r="M71" s="55" t="s">
+        <v>426</v>
       </c>
       <c r="N71" s="35"/>
       <c r="O71" s="35" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="P71" s="35"/>
       <c r="Q71" s="35"/>
@@ -8489,7 +8839,7 @@
     </row>
     <row r="72" spans="1:27" ht="240" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B72" s="35" t="s">
         <v>84</v>
@@ -8512,18 +8862,18 @@
         <v>69</v>
       </c>
       <c r="J72" s="35" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L72" s="35"/>
-      <c r="M72" s="39" t="s">
-        <v>444</v>
+      <c r="M72" s="55" t="s">
+        <v>431</v>
       </c>
       <c r="N72" s="35"/>
       <c r="O72" s="35" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="P72" s="35"/>
       <c r="Q72" s="35"/>
@@ -8552,10 +8902,20 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -8733,15 +9093,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8749,6 +9100,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD25D9B-AE96-487D-9364-6D4BDEAA848A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8766,14 +9125,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
   <ds:schemaRefs>

--- a/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
+++ b/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Z ISM OLSS Operation\General\OLSS Testing Guidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0890633-FD2C-4169-9DE2-00D5A8D51132}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D91B3-84E4-4C33-B08E-FFDB56258AA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Matrix Scenarios'!$A$1:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Test Scenarios'!$A$1:$O$15</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="448">
   <si>
     <t>No</t>
   </si>
@@ -858,10 +858,6 @@
     <t>1. To verify data Memo on OLSS same with data on MFAPPL</t>
   </si>
   <si>
-    <t>1. Verify data on screen Edit Memo Pengajuan - Car Ownership Program
-2. Click Edit on Table Profit Analysis</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. System should show data disposal same with data on MFAPPL
 2. System should show History Memo with the latest update is SAVE AND GENERATE
 3. System should allow Admin Asset Selling click Edit on Table Profit Analysis
@@ -1878,207 +1874,6 @@
 2. System should allow user to Save as Final BAST
 3. After user has Save as Final, system should show message "Success! BAST Supplier Number: xxxxx/BSP/JKC/MM/YYYY and BAST Customer Number: xxxxx/BCT/JKC/MM/YYYY has been completed!"
 4. After user has save as final BAST, transaction should be appear in Actual Tab with progress status  Confirm to Supplier</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Chintya Kristi jkn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Click on MARKETING - Agreement Information Inquiry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IRMA VERDIAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Click on MARKETING - Board of Director Decree/SKD Process
-2. Search previous SKD Number
-3. Click Detail
-4. Click Approve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-- Login as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Herni Hembang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Click on MARKETING - Board of Director Decree/SKD Process
-2. Search previous SKD Number
-3. Click Detail
-4. Check All Approval List
-5. Click Check</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VERDIAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Click on MARKETING - Agreement Information Inquiry
-2. Search previous Agreement Number
-3. Click Detail
-4. Click Approve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chintya Kristi jkn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Click on MARKETING - Monitoring Purchase Order</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">VERDIAN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Click on MARKETING - Agreement Information Inquiry
-2. Search previous Agreement Number
-3. Click Detail
-4. Click Approve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pathul Wadi
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Click on MANAGEMENT - Monitoring Unit Preparation</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2106,90 +1901,6 @@
       </rPr>
       <t>1. Click on MARKETING - Calculation of Operating Lease
 2. Click Create</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IVAN ANGELO
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Click on MARKETING - Operating Lease Quotation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Herni Hembang
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Click on MARKETING - Operating Lease Quotation
-2. Search previous Quotation Number
-3. Click Detail
-4. Click Validate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IVAN ANGELO
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Click on MARKETING - Board of Director Decree/SKD Process</t>
     </r>
   </si>
   <si>
@@ -2276,6 +1987,718 @@
 Password : [free text]</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pathul Wadi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MANAGEMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monitoring Unit Preparation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VERDIAN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agreement Information Inquiry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Search previous Agreement Number
+3. Click Detail
+4. Click Approve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IVAN ANGELO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Operating Lease Quotation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Herni Hembang
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Operating Lease Quotation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Search previous Quotation Number
+3. Click Detail
+4. Click Validate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IVAN ANGELO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Board of Director Decree/SKD Process</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-- Login as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Herni Hembang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Board of Director Decree/SKD Process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Search previous SKD Number
+3. Click Detail
+4. Check All Approval List
+5. Click Check</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IRMA VERDIAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Board of Director Decree/SKD Process
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Search previous SKD Number
+3. Click Detail
+4. Click Approve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chintya Kristi jkn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agreement Information Inquiry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VERDIAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agreement Information Inquiry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Search previous Agreement Number
+3. Click Detail
+4. Click Approve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chintya Kristi jkn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monitoring Purchase Order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Verify data on screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Memo Pengajuan - Car Ownership Program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click Edit on Table Profit Analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Verify data on screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Edit Profit Analysis
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Change number at SKD Budget for Unit
+3. Edit some of fields on Profit Analysis and validate
+4. Click Save Changes
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2286,7 +2709,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2356,6 +2779,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0066FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0066FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2713,7 +3152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,6 +3276,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2861,10 +3306,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2878,11 +3323,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF00FFFF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFFFF99"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF0066FF"/>
       <color rgb="FF99FF66"/>
-      <color rgb="FF0066FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3577,16 +4022,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="24">
         <f>AVERAGE(I2:I13)</f>
         <v>0.625</v>
@@ -3659,7 +4104,7 @@
       <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="52" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="23"/>
@@ -3677,7 +4122,7 @@
       <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -3692,7 +4137,7 @@
       <c r="D4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -3707,7 +4152,7 @@
       <c r="D5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="55" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3724,7 +4169,7 @@
       <c r="D6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -3739,7 +4184,7 @@
       <c r="D7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
@@ -4066,12 +4511,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="42">
         <v>1</v>
       </c>
@@ -4714,32 +5159,34 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.7109375" customWidth="1"/>
+    <col min="11" max="11" width="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="116" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.5703125" customWidth="1"/>
     <col min="22" max="22" width="17.28515625" customWidth="1"/>
     <col min="24" max="24" width="23" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4825,7 +5272,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="34" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>162</v>
       </c>
@@ -4860,9 +5307,9 @@
         <v>165</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="M2" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="M2" s="57" t="s">
         <v>166</v>
       </c>
       <c r="N2" s="35" t="s">
@@ -4888,7 +5335,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>169</v>
       </c>
@@ -4921,7 +5368,7 @@
         <v>172</v>
       </c>
       <c r="L3" s="35"/>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="57" t="s">
         <v>173</v>
       </c>
       <c r="N3" s="35" t="s">
@@ -4947,7 +5394,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>175</v>
       </c>
@@ -4980,7 +5427,7 @@
         <v>178</v>
       </c>
       <c r="L4" s="35"/>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="57" t="s">
         <v>179</v>
       </c>
       <c r="N4" s="35" t="s">
@@ -5006,7 +5453,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>181</v>
       </c>
@@ -5039,14 +5486,14 @@
         <v>184</v>
       </c>
       <c r="L5" s="35"/>
-      <c r="M5" s="35" t="s">
-        <v>185</v>
+      <c r="M5" s="57" t="s">
+        <v>446</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
@@ -5065,9 +5512,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>84</v>
@@ -5089,23 +5536,23 @@
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="35" t="s">
         <v>183</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L6" s="35"/>
-      <c r="M6" s="35" t="s">
-        <v>190</v>
+      <c r="M6" s="57" t="s">
+        <v>447</v>
       </c>
       <c r="N6" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
@@ -5124,9 +5571,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>84</v>
@@ -5148,23 +5595,23 @@
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J7" s="35" t="s">
         <v>183</v>
       </c>
       <c r="K7" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="57" t="s">
         <v>194</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -5183,9 +5630,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>84</v>
@@ -5207,25 +5654,25 @@
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J8" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="L8" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="M8" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="L8" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="M8" s="35" t="s">
+      <c r="N8" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="O8" s="35" t="s">
         <v>201</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>202</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
@@ -5244,9 +5691,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>84</v>
@@ -5268,25 +5715,25 @@
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J9" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="L9" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="M9" s="57" t="s">
         <v>205</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>206</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
@@ -5305,9 +5752,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="255" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>84</v>
@@ -5329,23 +5776,23 @@
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K10" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="57" t="s">
         <v>209</v>
-      </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35" t="s">
-        <v>210</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
@@ -5364,9 +5811,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>84</v>
@@ -5377,7 +5824,7 @@
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>87</v>
@@ -5385,10 +5832,10 @@
       <c r="H11" s="26"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
@@ -5396,7 +5843,7 @@
         <v>167</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -5415,9 +5862,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>84</v>
@@ -5441,25 +5888,25 @@
         <v>95</v>
       </c>
       <c r="I12" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="K12" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="L12" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="M12" s="58" t="s">
         <v>219</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>220</v>
       </c>
       <c r="N12" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -5478,9 +5925,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>84</v>
@@ -5502,23 +5949,23 @@
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>218</v>
-      </c>
       <c r="K13" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="58" t="s">
         <v>223</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35" t="s">
-        <v>224</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -5537,9 +5984,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>84</v>
@@ -5561,25 +6008,25 @@
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J14" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="L14" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="M14" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="L14" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="M14" s="35" t="s">
+      <c r="N14" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="O14" s="35" t="s">
         <v>229</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>230</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -5598,15 +6045,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="34" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="34" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>28</v>
@@ -5633,9 +6080,9 @@
         <v>165</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="M15" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="M15" s="58" t="s">
         <v>166</v>
       </c>
       <c r="N15" s="35" t="s">
@@ -5661,15 +6108,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>28</v>
@@ -5694,14 +6141,14 @@
         <v>172</v>
       </c>
       <c r="L16" s="35"/>
-      <c r="M16" s="35" t="s">
-        <v>234</v>
+      <c r="M16" s="58" t="s">
+        <v>233</v>
       </c>
       <c r="N16" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -5720,15 +6167,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>28</v>
@@ -5744,16 +6191,16 @@
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>238</v>
       </c>
       <c r="K17" s="35" t="s">
         <v>178</v>
       </c>
       <c r="L17" s="35"/>
-      <c r="M17" s="35" t="s">
+      <c r="M17" s="58" t="s">
         <v>179</v>
       </c>
       <c r="N17" s="35" t="s">
@@ -5779,15 +6226,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>28</v>
@@ -5803,7 +6250,7 @@
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J18" s="35" t="s">
         <v>183</v>
@@ -5812,14 +6259,14 @@
         <v>184</v>
       </c>
       <c r="L18" s="35"/>
-      <c r="M18" s="35" t="s">
-        <v>241</v>
+      <c r="M18" s="58" t="s">
+        <v>240</v>
       </c>
       <c r="N18" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
@@ -5838,15 +6285,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="360" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>28</v>
@@ -5862,23 +6309,23 @@
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>183</v>
       </c>
       <c r="K19" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="58" t="s">
         <v>189</v>
-      </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="N19" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
@@ -5897,15 +6344,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>28</v>
@@ -5921,23 +6368,23 @@
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>183</v>
       </c>
       <c r="K20" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="58" t="s">
         <v>194</v>
-      </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="N20" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
@@ -5956,15 +6403,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>28</v>
@@ -5980,25 +6427,25 @@
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J21" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="L21" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="M21" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="L21" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="M21" s="35" t="s">
+      <c r="N21" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="N21" s="35" t="s">
+      <c r="O21" s="35" t="s">
         <v>201</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>202</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
@@ -6017,15 +6464,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>28</v>
@@ -6041,25 +6488,25 @@
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J22" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="L22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="M22" s="58" t="s">
         <v>205</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>206</v>
       </c>
       <c r="N22" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -6078,15 +6525,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="255" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>28</v>
@@ -6102,23 +6549,23 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K23" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" s="35"/>
+      <c r="M23" s="58" t="s">
         <v>209</v>
-      </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35" t="s">
-        <v>210</v>
       </c>
       <c r="N23" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
@@ -6137,20 +6584,20 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>97</v>
@@ -6158,10 +6605,10 @@
       <c r="H24" s="26"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
@@ -6169,7 +6616,7 @@
         <v>167</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
@@ -6188,15 +6635,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>28</v>
@@ -6214,25 +6661,25 @@
         <v>101</v>
       </c>
       <c r="I25" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="K25" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="L25" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="M25" s="35" t="s">
         <v>219</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="M25" s="35" t="s">
-        <v>220</v>
       </c>
       <c r="N25" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
@@ -6251,15 +6698,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>28</v>
@@ -6275,23 +6722,23 @@
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="J26" s="35" t="s">
-        <v>218</v>
-      </c>
       <c r="K26" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N26" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
@@ -6310,15 +6757,15 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>28</v>
@@ -6334,25 +6781,25 @@
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J27" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="L27" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="M27" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="L27" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="M27" s="35" t="s">
+      <c r="N27" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" s="35" t="s">
         <v>229</v>
-      </c>
-      <c r="N27" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="O27" s="35" t="s">
-        <v>230</v>
       </c>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
@@ -6371,9 +6818,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>84</v>
@@ -6404,7 +6851,7 @@
         <v>165</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>166</v>
@@ -6432,9 +6879,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>84</v>
@@ -6489,9 +6936,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>84</v>
@@ -6546,9 +6993,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>84</v>
@@ -6574,17 +7021,17 @@
         <v>177</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L31" s="35"/>
       <c r="M31" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N31" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
@@ -6603,9 +7050,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>84</v>
@@ -6636,7 +7083,7 @@
         <v>165</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M32" s="35" t="s">
         <v>166</v>
@@ -6664,9 +7111,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>84</v>
@@ -6696,13 +7143,13 @@
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N33" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
@@ -6721,9 +7168,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>84</v>
@@ -6743,10 +7190,10 @@
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="J34" s="35" t="s">
-        <v>238</v>
       </c>
       <c r="K34" s="35" t="s">
         <v>178</v>
@@ -6778,9 +7225,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>84</v>
@@ -6800,7 +7247,7 @@
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J35" s="35" t="s">
         <v>183</v>
@@ -6810,13 +7257,13 @@
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N35" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P35" s="35"/>
       <c r="Q35" s="35"/>
@@ -6835,9 +7282,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="360" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>84</v>
@@ -6857,23 +7304,23 @@
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>183</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N36" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
@@ -6892,9 +7339,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>84</v>
@@ -6914,23 +7361,23 @@
       </c>
       <c r="H37" s="26"/>
       <c r="I37" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>183</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N37" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
@@ -6949,9 +7396,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>84</v>
@@ -6971,25 +7418,25 @@
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K38" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="M38" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="L38" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="M38" s="35" t="s">
+      <c r="N38" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="O38" s="35" t="s">
         <v>267</v>
-      </c>
-      <c r="N38" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="O38" s="35" t="s">
-        <v>268</v>
       </c>
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
@@ -7008,9 +7455,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>84</v>
@@ -7033,20 +7480,20 @@
         <v>170</v>
       </c>
       <c r="J39" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K39" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="K39" s="35" t="s">
-        <v>271</v>
-      </c>
       <c r="L39" s="35"/>
-      <c r="M39" s="56" t="s">
-        <v>444</v>
+      <c r="M39" s="48" t="s">
+        <v>433</v>
       </c>
       <c r="N39" s="35" t="s">
         <v>167</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
@@ -7065,9 +7512,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>84</v>
@@ -7092,18 +7539,18 @@
         <v>53</v>
       </c>
       <c r="J40" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" s="35" t="s">
         <v>274</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>275</v>
       </c>
       <c r="L40" s="35"/>
       <c r="M40" s="45" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="N40" s="35"/>
       <c r="O40" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
@@ -7122,9 +7569,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="390" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>84</v>
@@ -7144,21 +7591,21 @@
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J41" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="J41" s="35" t="s">
+      <c r="K41" s="35" t="s">
         <v>279</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>280</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N41" s="35"/>
       <c r="O41" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
@@ -7177,9 +7624,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="210" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>84</v>
@@ -7199,21 +7646,21 @@
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="J42" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="K42" s="35" t="s">
         <v>285</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>286</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N42" s="35"/>
       <c r="O42" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
@@ -7232,9 +7679,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>84</v>
@@ -7254,21 +7701,21 @@
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="K43" s="35" t="s">
         <v>291</v>
-      </c>
-      <c r="K43" s="35" t="s">
-        <v>292</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N43" s="35"/>
       <c r="O43" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
@@ -7287,9 +7734,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>84</v>
@@ -7309,21 +7756,21 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J44" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="J44" s="35" t="s">
+      <c r="K44" s="35" t="s">
         <v>297</v>
-      </c>
-      <c r="K44" s="35" t="s">
-        <v>298</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N44" s="35"/>
       <c r="O44" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P44" s="35"/>
       <c r="Q44" s="35"/>
@@ -7342,9 +7789,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="240" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>84</v>
@@ -7364,21 +7811,21 @@
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="K45" s="35" t="s">
         <v>303</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>304</v>
       </c>
       <c r="L45" s="35"/>
       <c r="M45" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N45" s="35"/>
       <c r="O45" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P45" s="35"/>
       <c r="Q45" s="35"/>
@@ -7397,9 +7844,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>84</v>
@@ -7419,21 +7866,21 @@
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J46" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="J46" s="35" t="s">
+      <c r="K46" s="35" t="s">
         <v>309</v>
-      </c>
-      <c r="K46" s="35" t="s">
-        <v>310</v>
       </c>
       <c r="L46" s="35"/>
       <c r="M46" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N46" s="35"/>
       <c r="O46" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P46" s="35"/>
       <c r="Q46" s="35"/>
@@ -7452,9 +7899,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>84</v>
@@ -7479,18 +7926,18 @@
         <v>56</v>
       </c>
       <c r="J47" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="K47" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="K47" s="35" t="s">
-        <v>315</v>
-      </c>
       <c r="L47" s="35"/>
-      <c r="M47" s="55" t="s">
-        <v>441</v>
+      <c r="M47" s="47" t="s">
+        <v>438</v>
       </c>
       <c r="N47" s="35"/>
       <c r="O47" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P47" s="35"/>
       <c r="Q47" s="35"/>
@@ -7509,9 +7956,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>84</v>
@@ -7531,21 +7978,21 @@
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J48" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="K48" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="K48" s="35" t="s">
+      <c r="L48" s="35"/>
+      <c r="M48" s="47" t="s">
         <v>320</v>
-      </c>
-      <c r="L48" s="35"/>
-      <c r="M48" s="55" t="s">
-        <v>321</v>
       </c>
       <c r="N48" s="35"/>
       <c r="O48" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P48" s="35"/>
       <c r="Q48" s="35"/>
@@ -7564,9 +8011,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="210" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>84</v>
@@ -7586,21 +8033,21 @@
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="J49" s="35" t="s">
+      <c r="K49" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="K49" s="35" t="s">
+      <c r="L49" s="35"/>
+      <c r="M49" s="47" t="s">
         <v>326</v>
-      </c>
-      <c r="L49" s="35"/>
-      <c r="M49" s="55" t="s">
-        <v>327</v>
       </c>
       <c r="N49" s="35"/>
       <c r="O49" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P49" s="35"/>
       <c r="Q49" s="35"/>
@@ -7619,9 +8066,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>84</v>
@@ -7644,18 +8091,18 @@
         <v>56</v>
       </c>
       <c r="J50" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="K50" s="35" t="s">
+      <c r="L50" s="35"/>
+      <c r="M50" s="47" t="s">
         <v>331</v>
-      </c>
-      <c r="L50" s="35"/>
-      <c r="M50" s="55" t="s">
-        <v>332</v>
       </c>
       <c r="N50" s="35"/>
       <c r="O50" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P50" s="35"/>
       <c r="Q50" s="35"/>
@@ -7674,9 +8121,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>84</v>
@@ -7699,18 +8146,18 @@
         <v>56</v>
       </c>
       <c r="J51" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="K51" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="K51" s="35" t="s">
-        <v>336</v>
-      </c>
       <c r="L51" s="35"/>
-      <c r="M51" s="56" t="s">
-        <v>442</v>
+      <c r="M51" s="48" t="s">
+        <v>439</v>
       </c>
       <c r="N51" s="35"/>
       <c r="O51" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P51" s="35"/>
       <c r="Q51" s="35"/>
@@ -7729,9 +8176,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>84</v>
@@ -7750,24 +8197,24 @@
         <v>119</v>
       </c>
       <c r="H52" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="I52" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="I52" s="35" t="s">
+      <c r="J52" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="J52" s="35" t="s">
+      <c r="K52" s="35" t="s">
         <v>341</v>
-      </c>
-      <c r="K52" s="35" t="s">
-        <v>342</v>
       </c>
       <c r="L52" s="35"/>
       <c r="M52" s="45" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N52" s="35"/>
       <c r="O52" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P52" s="35"/>
       <c r="Q52" s="35"/>
@@ -7786,9 +8233,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>84</v>
@@ -7808,21 +8255,21 @@
       </c>
       <c r="H53" s="26"/>
       <c r="I53" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="J53" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="J53" s="35" t="s">
+      <c r="K53" s="35" t="s">
         <v>346</v>
-      </c>
-      <c r="K53" s="35" t="s">
-        <v>347</v>
       </c>
       <c r="L53" s="35"/>
       <c r="M53" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N53" s="35"/>
       <c r="O53" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P53" s="35"/>
       <c r="Q53" s="35"/>
@@ -7841,9 +8288,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="210" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>84</v>
@@ -7863,21 +8310,21 @@
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="J54" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="J54" s="35" t="s">
+      <c r="K54" s="35" t="s">
         <v>352</v>
-      </c>
-      <c r="K54" s="35" t="s">
-        <v>353</v>
       </c>
       <c r="L54" s="35"/>
       <c r="M54" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N54" s="35"/>
       <c r="O54" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P54" s="35"/>
       <c r="Q54" s="35"/>
@@ -7896,9 +8343,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>84</v>
@@ -7918,21 +8365,21 @@
       </c>
       <c r="H55" s="26"/>
       <c r="I55" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="J55" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="J55" s="35" t="s">
+      <c r="K55" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="K55" s="35" t="s">
+      <c r="L55" s="35"/>
+      <c r="M55" s="47" t="s">
         <v>359</v>
-      </c>
-      <c r="L55" s="35"/>
-      <c r="M55" s="45" t="s">
-        <v>360</v>
       </c>
       <c r="N55" s="35"/>
       <c r="O55" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P55" s="35"/>
       <c r="Q55" s="35"/>
@@ -7951,9 +8398,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>84</v>
@@ -7973,21 +8420,21 @@
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L56" s="35"/>
-      <c r="M56" s="45" t="s">
-        <v>435</v>
+      <c r="M56" s="48" t="s">
+        <v>441</v>
       </c>
       <c r="N56" s="35"/>
       <c r="O56" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P56" s="35"/>
       <c r="Q56" s="35"/>
@@ -8006,9 +8453,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B57" s="35" t="s">
         <v>84</v>
@@ -8028,21 +8475,21 @@
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J57" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="K57" s="35" t="s">
         <v>366</v>
-      </c>
-      <c r="K57" s="35" t="s">
-        <v>367</v>
       </c>
       <c r="L57" s="35"/>
       <c r="M57" s="45" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="N57" s="46"/>
       <c r="O57" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P57" s="35"/>
       <c r="Q57" s="35"/>
@@ -8061,9 +8508,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>84</v>
@@ -8085,21 +8532,21 @@
         <v>125</v>
       </c>
       <c r="I58" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="J58" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="J58" s="35" t="s">
+      <c r="K58" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="K58" s="35" t="s">
-        <v>372</v>
-      </c>
       <c r="L58" s="35"/>
-      <c r="M58" s="55" t="s">
-        <v>433</v>
+      <c r="M58" s="47" t="s">
+        <v>443</v>
       </c>
       <c r="N58" s="35"/>
       <c r="O58" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P58" s="35"/>
       <c r="Q58" s="35"/>
@@ -8118,9 +8565,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>84</v>
@@ -8140,21 +8587,21 @@
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="J59" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="J59" s="35" t="s">
+      <c r="K59" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="K59" s="35" t="s">
+      <c r="L59" s="35"/>
+      <c r="M59" s="47" t="s">
         <v>377</v>
-      </c>
-      <c r="L59" s="35"/>
-      <c r="M59" s="55" t="s">
-        <v>378</v>
       </c>
       <c r="N59" s="35"/>
       <c r="O59" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P59" s="35"/>
       <c r="Q59" s="35"/>
@@ -8173,9 +8620,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>84</v>
@@ -8195,21 +8642,21 @@
       </c>
       <c r="H60" s="26"/>
       <c r="I60" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="J60" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="J60" s="35" t="s">
+      <c r="K60" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="K60" s="35" t="s">
+      <c r="L60" s="35"/>
+      <c r="M60" s="47" t="s">
         <v>383</v>
-      </c>
-      <c r="L60" s="35"/>
-      <c r="M60" s="55" t="s">
-        <v>384</v>
       </c>
       <c r="N60" s="35"/>
       <c r="O60" s="35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P60" s="35"/>
       <c r="Q60" s="35"/>
@@ -8228,9 +8675,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>84</v>
@@ -8250,21 +8697,21 @@
       </c>
       <c r="H61" s="26"/>
       <c r="I61" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="J61" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="J61" s="35" t="s">
+      <c r="K61" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="K61" s="35" t="s">
-        <v>389</v>
-      </c>
       <c r="L61" s="35"/>
-      <c r="M61" s="56" t="s">
-        <v>436</v>
+      <c r="M61" s="48" t="s">
+        <v>444</v>
       </c>
       <c r="N61" s="35"/>
       <c r="O61" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P61" s="35"/>
       <c r="Q61" s="35"/>
@@ -8285,7 +8732,7 @@
     </row>
     <row r="62" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>84</v>
@@ -8305,21 +8752,21 @@
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="J62" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="K62" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="J62" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="K62" s="35" t="s">
+      <c r="L62" s="35"/>
+      <c r="M62" s="48" t="s">
         <v>393</v>
-      </c>
-      <c r="L62" s="35"/>
-      <c r="M62" s="56" t="s">
-        <v>394</v>
       </c>
       <c r="N62" s="35"/>
       <c r="O62" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P62" s="35"/>
       <c r="Q62" s="35"/>
@@ -8338,9 +8785,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>84</v>
@@ -8365,18 +8812,18 @@
         <v>65</v>
       </c>
       <c r="J63" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="K63" s="35" t="s">
         <v>397</v>
-      </c>
-      <c r="K63" s="35" t="s">
-        <v>398</v>
       </c>
       <c r="L63" s="35"/>
       <c r="M63" s="45" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="N63" s="35"/>
       <c r="O63" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P63" s="35"/>
       <c r="Q63" s="35"/>
@@ -8395,9 +8842,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="300" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>84</v>
@@ -8417,21 +8864,21 @@
       </c>
       <c r="H64" s="26"/>
       <c r="I64" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="J64" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="J64" s="35" t="s">
+      <c r="K64" s="35" t="s">
         <v>402</v>
-      </c>
-      <c r="K64" s="35" t="s">
-        <v>403</v>
       </c>
       <c r="L64" s="35"/>
       <c r="M64" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N64" s="35"/>
       <c r="O64" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P64" s="35"/>
       <c r="Q64" s="35"/>
@@ -8450,9 +8897,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B65" s="35" t="s">
         <v>84</v>
@@ -8472,21 +8919,21 @@
       </c>
       <c r="H65" s="26"/>
       <c r="I65" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="J65" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="J65" s="35" t="s">
+      <c r="K65" s="35" t="s">
         <v>407</v>
-      </c>
-      <c r="K65" s="35" t="s">
-        <v>408</v>
       </c>
       <c r="L65" s="35"/>
       <c r="M65" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N65" s="35"/>
       <c r="O65" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P65" s="35"/>
       <c r="Q65" s="35"/>
@@ -8505,9 +8952,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>84</v>
@@ -8527,21 +8974,21 @@
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="J66" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="J66" s="35" t="s">
+      <c r="K66" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="K66" s="35" t="s">
-        <v>389</v>
-      </c>
       <c r="L66" s="35"/>
-      <c r="M66" s="55" t="s">
-        <v>438</v>
+      <c r="M66" s="47" t="s">
+        <v>437</v>
       </c>
       <c r="N66" s="35"/>
       <c r="O66" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P66" s="35"/>
       <c r="Q66" s="35"/>
@@ -8560,9 +9007,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>84</v>
@@ -8582,21 +9029,21 @@
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="K67" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="J67" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="K67" s="35" t="s">
+      <c r="L67" s="35"/>
+      <c r="M67" s="47" t="s">
         <v>393</v>
-      </c>
-      <c r="L67" s="35"/>
-      <c r="M67" s="55" t="s">
-        <v>394</v>
       </c>
       <c r="N67" s="35"/>
       <c r="O67" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P67" s="35"/>
       <c r="Q67" s="35"/>
@@ -8615,9 +9062,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B68" s="35" t="s">
         <v>84</v>
@@ -8642,18 +9089,18 @@
         <v>69</v>
       </c>
       <c r="J68" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="K68" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="K68" s="35" t="s">
-        <v>413</v>
-      </c>
       <c r="L68" s="35"/>
-      <c r="M68" s="55" t="s">
-        <v>439</v>
+      <c r="M68" s="45" t="s">
+        <v>436</v>
       </c>
       <c r="N68" s="35"/>
       <c r="O68" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
@@ -8672,9 +9119,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>84</v>
@@ -8697,18 +9144,18 @@
         <v>69</v>
       </c>
       <c r="J69" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K69" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="L69" s="35"/>
+      <c r="M69" s="45" t="s">
         <v>416</v>
-      </c>
-      <c r="L69" s="35"/>
-      <c r="M69" s="55" t="s">
-        <v>417</v>
       </c>
       <c r="N69" s="35"/>
       <c r="O69" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P69" s="35"/>
       <c r="Q69" s="35"/>
@@ -8727,9 +9174,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>84</v>
@@ -8752,18 +9199,18 @@
         <v>69</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K70" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="L70" s="35"/>
+      <c r="M70" s="45" t="s">
         <v>420</v>
-      </c>
-      <c r="L70" s="35"/>
-      <c r="M70" s="55" t="s">
-        <v>421</v>
       </c>
       <c r="N70" s="35"/>
       <c r="O70" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P70" s="35"/>
       <c r="Q70" s="35"/>
@@ -8782,9 +9229,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>84</v>
@@ -8807,18 +9254,18 @@
         <v>69</v>
       </c>
       <c r="J71" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="K71" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="K71" s="35" t="s">
+      <c r="L71" s="35"/>
+      <c r="M71" s="45" t="s">
         <v>425</v>
-      </c>
-      <c r="L71" s="35"/>
-      <c r="M71" s="55" t="s">
-        <v>426</v>
       </c>
       <c r="N71" s="35"/>
       <c r="O71" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P71" s="35"/>
       <c r="Q71" s="35"/>
@@ -8837,9 +9284,9 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="240" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B72" s="35" t="s">
         <v>84</v>
@@ -8862,18 +9309,18 @@
         <v>69</v>
       </c>
       <c r="J72" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="K72" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="K72" s="35" t="s">
+      <c r="L72" s="35"/>
+      <c r="M72" s="45" t="s">
         <v>430</v>
-      </c>
-      <c r="L72" s="35"/>
-      <c r="M72" s="55" t="s">
-        <v>431</v>
       </c>
       <c r="N72" s="35"/>
       <c r="O72" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P72" s="35"/>
       <c r="Q72" s="35"/>
@@ -8907,15 +9354,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9093,6 +9531,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9100,14 +9547,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD25D9B-AE96-487D-9364-6D4BDEAA848A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9125,6 +9564,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
   <ds:schemaRefs>

--- a/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
+++ b/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Z ISM OLSS Operation\General\OLSS Testing Guidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D91B3-84E4-4C33-B08E-FFDB56258AA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DF90AC-92CE-4EC3-ACA9-1A4987EF3297}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
   </bookViews>
@@ -3282,6 +3282,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3305,12 +3311,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4022,16 +4022,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="24">
         <f>AVERAGE(I2:I13)</f>
         <v>0.625</v>
@@ -4104,7 +4104,7 @@
       <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="54" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="23"/>
@@ -4122,7 +4122,7 @@
       <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -4137,7 +4137,7 @@
       <c r="D4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -4152,7 +4152,7 @@
       <c r="D5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="57" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       <c r="D6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -4184,7 +4184,7 @@
       <c r="D7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="56"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
@@ -4511,12 +4511,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="42">
         <v>1</v>
       </c>
@@ -4540,9 +4540,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5160,9 +5160,9 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,7 +5309,7 @@
       <c r="L2" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="49" t="s">
         <v>166</v>
       </c>
       <c r="N2" s="35" t="s">
@@ -5368,7 +5368,7 @@
         <v>172</v>
       </c>
       <c r="L3" s="35"/>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="49" t="s">
         <v>173</v>
       </c>
       <c r="N3" s="35" t="s">
@@ -5427,7 +5427,7 @@
         <v>178</v>
       </c>
       <c r="L4" s="35"/>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="49" t="s">
         <v>179</v>
       </c>
       <c r="N4" s="35" t="s">
@@ -5486,7 +5486,7 @@
         <v>184</v>
       </c>
       <c r="L5" s="35"/>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="49" t="s">
         <v>446</v>
       </c>
       <c r="N5" s="35" t="s">
@@ -5545,7 +5545,7 @@
         <v>188</v>
       </c>
       <c r="L6" s="35"/>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="49" t="s">
         <v>447</v>
       </c>
       <c r="N6" s="35" t="s">
@@ -5604,7 +5604,7 @@
         <v>193</v>
       </c>
       <c r="L7" s="35"/>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="49" t="s">
         <v>194</v>
       </c>
       <c r="N7" s="35" t="s">
@@ -5665,7 +5665,7 @@
       <c r="L8" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="50" t="s">
         <v>199</v>
       </c>
       <c r="N8" s="35" t="s">
@@ -5726,7 +5726,7 @@
       <c r="L9" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="49" t="s">
         <v>205</v>
       </c>
       <c r="N9" s="35" t="s">
@@ -5785,7 +5785,7 @@
         <v>208</v>
       </c>
       <c r="L10" s="35"/>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="49" t="s">
         <v>209</v>
       </c>
       <c r="N10" s="35" t="s">
@@ -5899,7 +5899,7 @@
       <c r="L12" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="50" t="s">
         <v>219</v>
       </c>
       <c r="N12" s="35" t="s">
@@ -5958,7 +5958,7 @@
         <v>222</v>
       </c>
       <c r="L13" s="35"/>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="50" t="s">
         <v>223</v>
       </c>
       <c r="N13" s="35" t="s">
@@ -6019,7 +6019,7 @@
       <c r="L14" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="M14" s="57" t="s">
+      <c r="M14" s="49" t="s">
         <v>228</v>
       </c>
       <c r="N14" s="35" t="s">
@@ -6082,7 +6082,7 @@
       <c r="L15" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="50" t="s">
         <v>166</v>
       </c>
       <c r="N15" s="35" t="s">
@@ -6141,7 +6141,7 @@
         <v>172</v>
       </c>
       <c r="L16" s="35"/>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="50" t="s">
         <v>233</v>
       </c>
       <c r="N16" s="35" t="s">
@@ -6200,7 +6200,7 @@
         <v>178</v>
       </c>
       <c r="L17" s="35"/>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="50" t="s">
         <v>179</v>
       </c>
       <c r="N17" s="35" t="s">
@@ -6259,7 +6259,7 @@
         <v>184</v>
       </c>
       <c r="L18" s="35"/>
-      <c r="M18" s="58" t="s">
+      <c r="M18" s="50" t="s">
         <v>240</v>
       </c>
       <c r="N18" s="35" t="s">
@@ -6318,7 +6318,7 @@
         <v>188</v>
       </c>
       <c r="L19" s="35"/>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="50" t="s">
         <v>189</v>
       </c>
       <c r="N19" s="35" t="s">
@@ -6377,7 +6377,7 @@
         <v>193</v>
       </c>
       <c r="L20" s="35"/>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="50" t="s">
         <v>194</v>
       </c>
       <c r="N20" s="35" t="s">
@@ -6438,7 +6438,7 @@
       <c r="L21" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="M21" s="49" t="s">
         <v>199</v>
       </c>
       <c r="N21" s="35" t="s">
@@ -6499,7 +6499,7 @@
       <c r="L22" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="50" t="s">
         <v>205</v>
       </c>
       <c r="N22" s="35" t="s">
@@ -6558,7 +6558,7 @@
         <v>208</v>
       </c>
       <c r="L23" s="35"/>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="50" t="s">
         <v>209</v>
       </c>
       <c r="N23" s="35" t="s">
@@ -9354,6 +9354,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9531,15 +9540,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9547,6 +9547,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD25D9B-AE96-487D-9364-6D4BDEAA848A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9564,14 +9572,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
   <ds:schemaRefs>

--- a/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
+++ b/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Z ISM OLSS Operation\General\OLSS Testing Guidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DF90AC-92CE-4EC3-ACA9-1A4987EF3297}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84563DCE-5D07-4D82-9C7A-52BE43FD0CF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1795,13 +1795,6 @@
     <t>1. To verify user can update Progress Unit Readiness to In Progress</t>
   </si>
   <si>
-    <t>1. Click Outstanding 45 tab
-2. Click Select
-3. Input Remark
-4. Update Unit Readiness to In Progress
-5. Click Save</t>
-  </si>
-  <si>
     <t>1. While user has approve Purchase Order, PO transaction should be appear in Outstanding 45.
 -- If user didn't proceed BAST &lt; 20 from BAST Plan, transaction should be appear in Outstanding 20
 -- If user didn't proceed BAST &lt; 3 from BAST Plan, transaction should be appear in Outstanding 3
@@ -1815,15 +1808,6 @@
     <t>1. To verify user can update Progress Unit Readiness to Complete and allow to update BAST Actual</t>
   </si>
   <si>
-    <t>1. Click Outstanding 45 tab
-2. Click Select
-3. Input Remark
-4. Update Unit Readiness to Complete
-5. Click Save
-6. Update BAST Actual
-7. Click Save</t>
-  </si>
-  <si>
     <t>1. System should allow user to update Progress Unit Readiness to Complete
 2. After user update Progress Unit Readiness, system should show message "Success! Your data successfully updated"
 3. While status of Progress Unit Readiness is Complete, system should allow user to update BAST Actual
@@ -1837,14 +1821,6 @@
   </si>
   <si>
     <t>1. To verify user can Save as Draft BAST</t>
-  </si>
-  <si>
-    <t>1. Click Outstanding 45 tab
-2. Input PO Number
-3. Click Search
-4. Click Create BAST
-5. Input some of fields on Create BAST screen
-6. Click Save as Draft</t>
   </si>
   <si>
     <t>1. System should allow user to search list of BAST based on PO Number
@@ -2699,6 +2675,320 @@
 </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outstanding 45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+2. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Remark
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. Update </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unit Readiness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In Progress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outstanding 45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+2. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Update </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unit Readiness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6. Update </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BAST Actual
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7. Click Save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outstanding 45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+2. Input PO Number
+3. Click Search
+4. Click Create BAST
+5. Input some of fields on Create BAST screen
+6. Click Save as Draft</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2709,7 +2999,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2795,6 +3085,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF0066FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3323,8 +3621,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF99FF66"/>
@@ -5159,10 +5457,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
+      <selection pane="bottomLeft" activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,7 +5605,7 @@
         <v>165</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M2" s="49" t="s">
         <v>166</v>
@@ -5487,7 +5785,7 @@
       </c>
       <c r="L5" s="35"/>
       <c r="M5" s="49" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>167</v>
@@ -5546,7 +5844,7 @@
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="49" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N6" s="35" t="s">
         <v>167</v>
@@ -5663,7 +5961,7 @@
         <v>198</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M8" s="50" t="s">
         <v>199</v>
@@ -5724,7 +6022,7 @@
         <v>204</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M9" s="49" t="s">
         <v>205</v>
@@ -5897,7 +6195,7 @@
         <v>218</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M12" s="50" t="s">
         <v>219</v>
@@ -6017,7 +6315,7 @@
         <v>227</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M14" s="49" t="s">
         <v>228</v>
@@ -6080,7 +6378,7 @@
         <v>165</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M15" s="50" t="s">
         <v>166</v>
@@ -6436,7 +6734,7 @@
         <v>198</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M21" s="49" t="s">
         <v>199</v>
@@ -6497,7 +6795,7 @@
         <v>204</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M22" s="50" t="s">
         <v>205</v>
@@ -6670,7 +6968,7 @@
         <v>218</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M25" s="35" t="s">
         <v>219</v>
@@ -6790,7 +7088,7 @@
         <v>227</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M27" s="35" t="s">
         <v>228</v>
@@ -6851,7 +7149,7 @@
         <v>165</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>166</v>
@@ -7083,7 +7381,7 @@
         <v>165</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M32" s="35" t="s">
         <v>166</v>
@@ -7427,7 +7725,7 @@
         <v>265</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M38" s="35" t="s">
         <v>266</v>
@@ -7487,7 +7785,7 @@
       </c>
       <c r="L39" s="35"/>
       <c r="M39" s="48" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N39" s="35" t="s">
         <v>167</v>
@@ -7546,7 +7844,7 @@
       </c>
       <c r="L40" s="35"/>
       <c r="M40" s="45" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N40" s="35"/>
       <c r="O40" s="35" t="s">
@@ -7933,7 +8231,7 @@
       </c>
       <c r="L47" s="35"/>
       <c r="M47" s="47" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N47" s="35"/>
       <c r="O47" s="35" t="s">
@@ -8153,7 +8451,7 @@
       </c>
       <c r="L51" s="35"/>
       <c r="M51" s="48" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N51" s="35"/>
       <c r="O51" s="35" t="s">
@@ -8210,7 +8508,7 @@
       </c>
       <c r="L52" s="35"/>
       <c r="M52" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N52" s="35"/>
       <c r="O52" s="35" t="s">
@@ -8430,7 +8728,7 @@
       </c>
       <c r="L56" s="35"/>
       <c r="M56" s="48" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N56" s="35"/>
       <c r="O56" s="35" t="s">
@@ -8485,7 +8783,7 @@
       </c>
       <c r="L57" s="35"/>
       <c r="M57" s="45" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N57" s="46"/>
       <c r="O57" s="35" t="s">
@@ -8542,7 +8840,7 @@
       </c>
       <c r="L58" s="35"/>
       <c r="M58" s="47" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N58" s="35"/>
       <c r="O58" s="35" t="s">
@@ -8707,7 +9005,7 @@
       </c>
       <c r="L61" s="35"/>
       <c r="M61" s="48" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N61" s="35"/>
       <c r="O61" s="35" t="s">
@@ -8819,7 +9117,7 @@
       </c>
       <c r="L63" s="35"/>
       <c r="M63" s="45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N63" s="35"/>
       <c r="O63" s="35" t="s">
@@ -8984,7 +9282,7 @@
       </c>
       <c r="L66" s="35"/>
       <c r="M66" s="47" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N66" s="35"/>
       <c r="O66" s="35" t="s">
@@ -9096,7 +9394,7 @@
       </c>
       <c r="L68" s="35"/>
       <c r="M68" s="45" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N68" s="35"/>
       <c r="O68" s="35" t="s">
@@ -9151,11 +9449,11 @@
       </c>
       <c r="L69" s="35"/>
       <c r="M69" s="45" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="N69" s="35"/>
       <c r="O69" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P69" s="35"/>
       <c r="Q69" s="35"/>
@@ -9176,7 +9474,7 @@
     </row>
     <row r="70" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>84</v>
@@ -9202,15 +9500,15 @@
         <v>411</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L70" s="35"/>
       <c r="M70" s="45" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="N70" s="35"/>
       <c r="O70" s="35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P70" s="35"/>
       <c r="Q70" s="35"/>
@@ -9231,7 +9529,7 @@
     </row>
     <row r="71" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>84</v>
@@ -9254,18 +9552,18 @@
         <v>69</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L71" s="35"/>
       <c r="M71" s="45" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="N71" s="35"/>
       <c r="O71" s="35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P71" s="35"/>
       <c r="Q71" s="35"/>
@@ -9286,7 +9584,7 @@
     </row>
     <row r="72" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B72" s="35" t="s">
         <v>84</v>
@@ -9309,18 +9607,18 @@
         <v>69</v>
       </c>
       <c r="J72" s="35" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L72" s="35"/>
       <c r="M72" s="45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N72" s="35"/>
       <c r="O72" s="35" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P72" s="35"/>
       <c r="Q72" s="35"/>
@@ -9354,6 +9652,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9362,7 +9666,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9540,13 +9844,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9554,7 +9861,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD25D9B-AE96-487D-9364-6D4BDEAA848A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9570,13 +9877,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
+++ b/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Z ISM OLSS Operation\General\OLSS Testing Guidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84563DCE-5D07-4D82-9C7A-52BE43FD0CF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D081AA-BF8E-422D-9F68-D3E9A784BE76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
   </bookViews>
@@ -3639,6 +3639,62 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1685925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3580349</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4352592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDEB9CE-FF93-43A5-8911-7D1E45FA36DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20269200" y="6257925"/>
+          <a:ext cx="8409524" cy="2666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5457,10 +5513,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M71" sqref="M71"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9648,22 +9704,23 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9845,18 +9902,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
+++ b/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Z ISM OLSS Operation\General\OLSS Testing Guidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D081AA-BF8E-422D-9F68-D3E9A784BE76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA032A-1495-464E-A60E-1BCAC338D36A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
   </bookViews>
@@ -3098,7 +3098,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3150,6 +3150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3450,7 +3456,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3609,6 +3615,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5513,10 +5522,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9171,7 +9180,7 @@
       <c r="K63" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="L63" s="35"/>
+      <c r="L63" s="59"/>
       <c r="M63" s="45" t="s">
         <v>442</v>
       </c>
@@ -9336,7 +9345,7 @@
       <c r="K66" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="L66" s="35"/>
+      <c r="L66" s="59"/>
       <c r="M66" s="47" t="s">
         <v>434</v>
       </c>
@@ -9709,18 +9718,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9902,18 +9911,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
+++ b/Z ISM OLSS Operation/General/OLSS Testing Guidance/Regression Pack OLSS v1.0 (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Z ISM OLSS Operation\General\OLSS Testing Guidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA032A-1495-464E-A60E-1BCAC338D36A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA14DA90-F5A6-4B37-B1C0-982CF29FCF39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{2B949844-A5F6-4068-A2AA-883F012D495F}"/>
   </bookViews>
@@ -2561,65 +2561,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">-- Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chintya Kristi jkn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Click on </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF0066FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MARKETING</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0066FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Monitoring Purchase Order</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. Verify data on screen </t>
     </r>
     <r>
@@ -2987,6 +2928,65 @@
 4. Click Create BAST
 5. Input some of fields on Create BAST screen
 6. Click Save as Draft</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chintya Kristi JKN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MARKETING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monitoring Purchase Order</t>
     </r>
   </si>
 </sst>
@@ -3592,6 +3592,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3615,9 +3618,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4385,16 +4385,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="24">
         <f>AVERAGE(I2:I13)</f>
         <v>0.625</v>
@@ -4467,7 +4467,7 @@
       <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="23"/>
@@ -4485,7 +4485,7 @@
       <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="55"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -4500,7 +4500,7 @@
       <c r="D4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -4515,7 +4515,7 @@
       <c r="D5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="58" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       <c r="D6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -4547,7 +4547,7 @@
       <c r="D7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
@@ -4874,12 +4874,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="42">
         <v>1</v>
       </c>
@@ -5523,9 +5523,9 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="T61" sqref="T61"/>
+      <selection pane="bottomLeft" activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="L5" s="35"/>
       <c r="M5" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>167</v>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N6" s="35" t="s">
         <v>167</v>
@@ -9180,9 +9180,9 @@
       <c r="K63" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="L63" s="59"/>
+      <c r="L63" s="51"/>
       <c r="M63" s="45" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="N63" s="35"/>
       <c r="O63" s="35" t="s">
@@ -9345,7 +9345,7 @@
       <c r="K66" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="L66" s="59"/>
+      <c r="L66" s="51"/>
       <c r="M66" s="47" t="s">
         <v>434</v>
       </c>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="L69" s="35"/>
       <c r="M69" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N69" s="35"/>
       <c r="O69" s="35" t="s">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="L70" s="35"/>
       <c r="M70" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N70" s="35"/>
       <c r="O70" s="35" t="s">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="L71" s="35"/>
       <c r="M71" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N71" s="35"/>
       <c r="O71" s="35" t="s">
@@ -9718,21 +9718,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9910,24 +9895,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD25D9B-AE96-487D-9364-6D4BDEAA848A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9943,4 +9926,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F847782F-5E77-49E7-A4C7-CB3F94C0761F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D26C81F-9EDF-4376-9A67-90E73EA5DFA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>